--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-06-29.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-06-29.xlsx
@@ -3126,17 +3126,11 @@
     <xf numFmtId="176" fontId="44" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="44" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="45" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3148,6 +3142,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -22034,7 +22034,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22054,7 +22054,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22091,7 +22091,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22111,7 +22111,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22146,7 +22146,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22166,7 +22166,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22203,7 +22203,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22223,7 +22223,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22258,7 +22258,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22278,7 +22278,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22315,7 +22315,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22335,7 +22335,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22370,7 +22370,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22390,7 +22390,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22427,7 +22427,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22447,7 +22447,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22482,7 +22482,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22502,7 +22502,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22539,7 +22539,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22559,7 +22559,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22594,7 +22594,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22614,7 +22614,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22651,7 +22651,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22671,7 +22671,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22706,7 +22706,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22726,7 +22726,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22763,7 +22763,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22783,7 +22783,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22818,7 +22818,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22838,7 +22838,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22875,7 +22875,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22895,7 +22895,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22930,7 +22930,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22950,7 +22950,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22987,7 +22987,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23007,7 +23007,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23042,7 +23042,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23062,7 +23062,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23099,7 +23099,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23119,7 +23119,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23154,7 +23154,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23174,7 +23174,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23211,7 +23211,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23231,7 +23231,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45242,7 +45242,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45262,7 +45262,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45299,7 +45299,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45319,7 +45319,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45354,7 +45354,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45374,7 +45374,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45411,7 +45411,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45431,7 +45431,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45466,7 +45466,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45486,7 +45486,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45523,7 +45523,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45543,7 +45543,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45578,7 +45578,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45598,7 +45598,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45635,7 +45635,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45655,7 +45655,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45690,7 +45690,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45710,7 +45710,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45747,7 +45747,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45767,7 +45767,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45802,7 +45802,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45822,7 +45822,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45859,7 +45859,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45879,7 +45879,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45914,7 +45914,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45934,7 +45934,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45971,7 +45971,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45991,7 +45991,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46026,7 +46026,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46046,7 +46046,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46083,7 +46083,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46103,7 +46103,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46138,7 +46138,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46158,7 +46158,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46195,7 +46195,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46215,7 +46215,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46250,7 +46250,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46270,7 +46270,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46307,7 +46307,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46327,7 +46327,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46362,7 +46362,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46382,7 +46382,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46419,7 +46419,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46439,7 +46439,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -58322,6 +58322,88 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId760" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19840575" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1318" name="Picture 1" descr="徽标"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1319" name="Picture 2" descr="cid:b4b8e8e713">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId761" tgtFrame="_blank"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId762" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -58632,7 +58714,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
@@ -58688,10 +58770,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="68"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="13"/>
       <c r="F2" s="24"/>
       <c r="G2" s="14"/>
@@ -58702,31 +58784,31 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="15">
         <f>SUM(E4:E42)</f>
-        <v>28581981.226600002</v>
+        <v>26109278.9309</v>
       </c>
       <c r="F3" s="25">
         <f>RA!I7</f>
-        <v>3747132.3917999999</v>
+        <v>1274430.0959999999</v>
       </c>
       <c r="G3" s="16">
         <f>SUM(G4:G42)</f>
-        <v>24834848.834800005</v>
+        <v>24834848.834900003</v>
       </c>
       <c r="H3" s="27">
         <f>RA!J7</f>
-        <v>13.1101212406952</v>
+        <v>4.8811386150221399</v>
       </c>
       <c r="I3" s="20">
         <f>SUM(I4:I42)</f>
-        <v>23897304.147041343</v>
+        <v>26109286.861068647</v>
       </c>
       <c r="J3" s="21">
         <f>SUM(J4:J42)</f>
@@ -58734,32 +58816,32 @@
       </c>
       <c r="K3" s="22">
         <f>E3-I3</f>
-        <v>4684677.0795586593</v>
+        <v>-7.9301686473190784</v>
       </c>
       <c r="L3" s="22">
         <f>G3-J3</f>
-        <v>0.23998801410198212</v>
+        <v>0.24008801206946373</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="70">
+      <c r="A4" s="68">
         <f>RA!A8</f>
         <v>42550</v>
       </c>
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D35,3,0)</f>
-        <v>1699538.1784999999</v>
+        <v>1616620.091</v>
       </c>
       <c r="F4" s="25">
         <f>VLOOKUP(C4,RA!B8:I38,8,0)</f>
-        <v>368666.20480000001</v>
+        <v>285748.11729999998</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" ref="G4:G42" si="0">E4-F4</f>
@@ -58767,11 +58849,11 @@
       </c>
       <c r="H4" s="27">
         <f>RA!J8</f>
-        <v>21.692140221609002</v>
+        <v>17.675650506313001</v>
       </c>
       <c r="I4" s="20">
         <f>VLOOKUP(B4,RMS!B:D,3,FALSE)</f>
-        <v>1165739.25117949</v>
+        <v>1616621.3537435899</v>
       </c>
       <c r="J4" s="21">
         <f>VLOOKUP(B4,RMS!B:E,4,FALSE)</f>
@@ -58779,7 +58861,7 @@
       </c>
       <c r="K4" s="22">
         <f t="shared" ref="K4:K42" si="1">E4-I4</f>
-        <v>533798.92732050992</v>
+        <v>-1.2627435899339616</v>
       </c>
       <c r="L4" s="22">
         <f t="shared" ref="L4:L42" si="2">G4-J4</f>
@@ -58787,21 +58869,21 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="70"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D36,3,0)</f>
-        <v>116637.9645</v>
+        <v>116640.6911</v>
       </c>
       <c r="F5" s="25">
         <f>VLOOKUP(C5,RA!B9:I39,8,0)</f>
-        <v>26927.505300000001</v>
+        <v>26930.231899999999</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
@@ -58809,11 +58891,11 @@
       </c>
       <c r="H5" s="27">
         <f>RA!J9</f>
-        <v>23.086398511352598</v>
+        <v>23.0881964484519</v>
       </c>
       <c r="I5" s="20">
         <f>VLOOKUP(B5,RMS!B:D,3,FALSE)</f>
-        <v>91886.290654700904</v>
+        <v>116640.757919658</v>
       </c>
       <c r="J5" s="21">
         <f>VLOOKUP(B5,RMS!B:E,4,FALSE)</f>
@@ -58821,7 +58903,7 @@
       </c>
       <c r="K5" s="22">
         <f t="shared" si="1"/>
-        <v>24751.673845299098</v>
+        <v>-6.6819658008171245E-2</v>
       </c>
       <c r="L5" s="22">
         <f t="shared" si="2"/>
@@ -58830,33 +58912,33 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="70"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="65"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D37,3,0)</f>
-        <v>223187.91759999999</v>
+        <v>223751.91020000001</v>
       </c>
       <c r="F6" s="25">
         <f>VLOOKUP(C6,RA!B10:I40,8,0)</f>
-        <v>62447.493300000002</v>
+        <v>63011.4859</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" si="0"/>
-        <v>160740.42429999998</v>
+        <v>160740.42430000001</v>
       </c>
       <c r="H6" s="27">
         <f>RA!J10</f>
-        <v>27.979782226347499</v>
+        <v>28.1613175251453</v>
       </c>
       <c r="I6" s="20">
         <f>VLOOKUP(B6,RMS!B:D,3,FALSE)</f>
-        <v>163980.724312231</v>
+        <v>223754.10892761499</v>
       </c>
       <c r="J6" s="21">
         <f>VLOOKUP(B6,RMS!B:E,4,FALSE)</f>
@@ -58864,42 +58946,42 @@
       </c>
       <c r="K6" s="22">
         <f>E6-I6</f>
-        <v>59207.193287768983</v>
+        <v>-2.1987276149739046</v>
       </c>
       <c r="L6" s="22">
         <f t="shared" si="2"/>
-        <v>-6.9931300822645426E-4</v>
+        <v>-6.993129791226238E-4</v>
       </c>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="70"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="65"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D38,3,0)</f>
-        <v>107394.6538</v>
+        <v>104608.65889999999</v>
       </c>
       <c r="F7" s="25">
         <f>VLOOKUP(C7,RA!B11:I41,8,0)</f>
-        <v>24190.777399999999</v>
+        <v>21404.782500000001</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>83203.876400000008</v>
+        <v>83203.876399999994</v>
       </c>
       <c r="H7" s="27">
         <f>RA!J11</f>
-        <v>22.5251225680659</v>
+        <v>20.461769345940802</v>
       </c>
       <c r="I7" s="20">
         <f>VLOOKUP(B7,RMS!B:D,3,FALSE)</f>
-        <v>75257.347156947304</v>
+        <v>104608.717401256</v>
       </c>
       <c r="J7" s="21">
         <f>VLOOKUP(B7,RMS!B:E,4,FALSE)</f>
@@ -58907,42 +58989,42 @@
       </c>
       <c r="K7" s="22">
         <f t="shared" si="1"/>
-        <v>32137.306643052696</v>
+        <v>-5.8501256004092284E-2</v>
       </c>
       <c r="L7" s="22">
         <f t="shared" si="2"/>
-        <v>7.6474550587590784E-4</v>
+        <v>7.6474549132399261E-4</v>
       </c>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="70"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="65"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D38,3,0)</f>
-        <v>808267.22919999994</v>
+        <v>748788.81299999997</v>
       </c>
       <c r="F8" s="25">
         <f>VLOOKUP(C8,RA!B12:I42,8,0)</f>
-        <v>290961.7758</v>
+        <v>231483.3596</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="0"/>
-        <v>517305.45339999994</v>
+        <v>517305.4534</v>
       </c>
       <c r="H8" s="27">
         <f>RA!J12</f>
-        <v>35.998215106158099</v>
+        <v>30.914372060737499</v>
       </c>
       <c r="I8" s="20">
         <f>VLOOKUP(B8,RMS!B:D,3,FALSE)</f>
-        <v>413531.331466667</v>
+        <v>748788.88702222204</v>
       </c>
       <c r="J8" s="21">
         <f>VLOOKUP(B8,RMS!B:E,4,FALSE)</f>
@@ -58950,30 +59032,30 @@
       </c>
       <c r="K8" s="22">
         <f t="shared" si="1"/>
-        <v>394735.89773333294</v>
+        <v>-7.4022222077473998E-2</v>
       </c>
       <c r="L8" s="22">
         <f t="shared" si="2"/>
-        <v>1.882050943095237E-3</v>
+        <v>1.8820510013028979E-3</v>
       </c>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="70"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D39,3,0)</f>
-        <v>579734.72349999996</v>
+        <v>547718.34840000002</v>
       </c>
       <c r="F9" s="25">
         <f>VLOOKUP(C9,RA!B13:I43,8,0)</f>
-        <v>177630.62109999999</v>
+        <v>145614.24600000001</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" si="0"/>
@@ -58981,11 +59063,11 @@
       </c>
       <c r="H9" s="27">
         <f>RA!J13</f>
-        <v>30.639983064599001</v>
+        <v>26.585606712897199</v>
       </c>
       <c r="I9" s="20">
         <f>VLOOKUP(B9,RMS!B:D,3,FALSE)</f>
-        <v>369240.48015470098</v>
+        <v>547718.79639401694</v>
       </c>
       <c r="J9" s="21">
         <f>VLOOKUP(B9,RMS!B:E,4,FALSE)</f>
@@ -58993,7 +59075,7 @@
       </c>
       <c r="K9" s="22">
         <f t="shared" si="1"/>
-        <v>210494.24334529898</v>
+        <v>-0.44799401692580432</v>
       </c>
       <c r="L9" s="22">
         <f t="shared" si="2"/>
@@ -59002,21 +59084,21 @@
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="70"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="65"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D40,3,0)</f>
-        <v>129528.10799999999</v>
+        <v>120839.60189999999</v>
       </c>
       <c r="F10" s="25">
         <f>VLOOKUP(C10,RA!B14:I43,8,0)</f>
-        <v>34603.565799999997</v>
+        <v>25915.059700000002</v>
       </c>
       <c r="G10" s="16">
         <f t="shared" si="0"/>
@@ -59024,11 +59106,11 @@
       </c>
       <c r="H10" s="27">
         <f>RA!J14</f>
-        <v>26.715101713675899</v>
+        <v>21.4458333961128</v>
       </c>
       <c r="I10" s="20">
         <f>VLOOKUP(B10,RMS!B:D,3,FALSE)</f>
-        <v>118389.501030769</v>
+        <v>120839.61214188</v>
       </c>
       <c r="J10" s="21">
         <f>VLOOKUP(B10,RMS!B:E,4,FALSE)</f>
@@ -59036,7 +59118,7 @@
       </c>
       <c r="K10" s="22">
         <f t="shared" si="1"/>
-        <v>11138.606969230997</v>
+        <v>-1.0241880008834414E-2</v>
       </c>
       <c r="L10" s="22">
         <f t="shared" si="2"/>
@@ -59045,21 +59127,21 @@
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="70"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D41,3,0)</f>
-        <v>183682.14569999999</v>
+        <v>166028.66029999999</v>
       </c>
       <c r="F11" s="25">
         <f>VLOOKUP(C11,RA!B15:I44,8,0)</f>
-        <v>39932.183900000004</v>
+        <v>22278.698499999999</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" si="0"/>
@@ -59067,11 +59149,11 @@
       </c>
       <c r="H11" s="27">
         <f>RA!J15</f>
-        <v>21.739828739380901</v>
+        <v>13.418585959643501</v>
       </c>
       <c r="I11" s="20">
         <f>VLOOKUP(B11,RMS!B:D,3,FALSE)</f>
-        <v>121945.86021880301</v>
+        <v>166028.98842393199</v>
       </c>
       <c r="J11" s="21">
         <f>VLOOKUP(B11,RMS!B:E,4,FALSE)</f>
@@ -59079,7 +59161,7 @@
       </c>
       <c r="K11" s="22">
         <f t="shared" si="1"/>
-        <v>61736.285481196988</v>
+        <v>-0.32812393200583756</v>
       </c>
       <c r="L11" s="22">
         <f t="shared" si="2"/>
@@ -59088,21 +59170,21 @@
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="70"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D42,3,0)</f>
-        <v>1490343.4291000001</v>
+        <v>1400423.5996000001</v>
       </c>
       <c r="F12" s="25">
         <f>VLOOKUP(C12,RA!B16:I45,8,0)</f>
-        <v>122931.908</v>
+        <v>33012.078500000003</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" si="0"/>
@@ -59110,11 +59192,11 @@
       </c>
       <c r="H12" s="27">
         <f>RA!J16</f>
-        <v>8.2485624185451698</v>
+        <v>2.3572923584999002</v>
       </c>
       <c r="I12" s="20">
         <f>VLOOKUP(B12,RMS!B:D,3,FALSE)</f>
-        <v>1250076.1100717899</v>
+        <v>1400422.7841509101</v>
       </c>
       <c r="J12" s="21">
         <f>VLOOKUP(B12,RMS!B:E,4,FALSE)</f>
@@ -59122,7 +59204,7 @@
       </c>
       <c r="K12" s="22">
         <f t="shared" si="1"/>
-        <v>240267.31902821013</v>
+        <v>0.81544908997602761</v>
       </c>
       <c r="L12" s="22">
         <f t="shared" si="2"/>
@@ -59131,21 +59213,21 @@
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="70"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="65"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D43,3,0)</f>
-        <v>852144.00509999995</v>
+        <v>774048.61170000001</v>
       </c>
       <c r="F13" s="25">
         <f>VLOOKUP(C13,RA!B17:I46,8,0)</f>
-        <v>134512.8781</v>
+        <v>56417.484700000001</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="0"/>
@@ -59153,11 +59235,11 @@
       </c>
       <c r="H13" s="27">
         <f>RA!J17</f>
-        <v>15.7852284701827</v>
+        <v>7.2886229426978</v>
       </c>
       <c r="I13" s="20">
         <f>VLOOKUP(B13,RMS!B:D,3,FALSE)</f>
-        <v>730673.18757435901</v>
+        <v>774048.33287350403</v>
       </c>
       <c r="J13" s="21">
         <f>VLOOKUP(B13,RMS!B:E,4,FALSE)</f>
@@ -59165,7 +59247,7 @@
       </c>
       <c r="K13" s="22">
         <f t="shared" si="1"/>
-        <v>121470.81752564094</v>
+        <v>0.27882649598177522</v>
       </c>
       <c r="L13" s="22">
         <f t="shared" si="2"/>
@@ -59174,33 +59256,33 @@
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="70"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="65"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D43,3,0)</f>
-        <v>2011845.2823000001</v>
+        <v>1822489.9558000001</v>
       </c>
       <c r="F14" s="25">
         <f>VLOOKUP(C14,RA!B18:I47,8,0)</f>
-        <v>400769.64559999999</v>
+        <v>211414.31899999999</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" si="0"/>
-        <v>1611075.6367000001</v>
+        <v>1611075.6368000002</v>
       </c>
       <c r="H14" s="27">
         <f>RA!J18</f>
-        <v>19.920500305164001</v>
+        <v>11.600300913987599</v>
       </c>
       <c r="I14" s="20">
         <f>VLOOKUP(B14,RMS!B:D,3,FALSE)</f>
-        <v>1768067.0990700901</v>
+        <v>1822490.1223160599</v>
       </c>
       <c r="J14" s="21">
         <f>VLOOKUP(B14,RMS!B:E,4,FALSE)</f>
@@ -59208,30 +59290,30 @@
       </c>
       <c r="K14" s="22">
         <f t="shared" si="1"/>
-        <v>243778.18322990998</v>
+        <v>-0.16651605977676809</v>
       </c>
       <c r="L14" s="22">
         <f t="shared" si="2"/>
-        <v>8.1042740261182189E-2</v>
+        <v>8.1142740324139595E-2</v>
       </c>
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="70"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="65"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D44,3,0)</f>
-        <v>635423.93429999996</v>
+        <v>568955.51540000003</v>
       </c>
       <c r="F15" s="25">
         <f>VLOOKUP(C15,RA!B19:I48,8,0)</f>
-        <v>89266.954299999998</v>
+        <v>22798.535400000001</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" si="0"/>
@@ -59239,11 +59321,11 @@
       </c>
       <c r="H15" s="27">
         <f>RA!J19</f>
-        <v>14.048409177148599</v>
+        <v>4.0070857532634401</v>
       </c>
       <c r="I15" s="20">
         <f>VLOOKUP(B15,RMS!B:D,3,FALSE)</f>
-        <v>543682.93021452997</v>
+        <v>568955.49210999894</v>
       </c>
       <c r="J15" s="21">
         <f>VLOOKUP(B15,RMS!B:E,4,FALSE)</f>
@@ -59251,7 +59333,7 @@
       </c>
       <c r="K15" s="22">
         <f t="shared" si="1"/>
-        <v>91741.004085469991</v>
+        <v>2.3290001088753343E-2</v>
       </c>
       <c r="L15" s="22">
         <f t="shared" si="2"/>
@@ -59260,21 +59342,21 @@
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="70"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D45,3,0)</f>
-        <v>1622546.26</v>
+        <v>1374376.8885999999</v>
       </c>
       <c r="F16" s="25">
         <f>VLOOKUP(C16,RA!B20:I49,8,0)</f>
-        <v>341973.10830000002</v>
+        <v>93803.736900000004</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" si="0"/>
@@ -59282,11 +59364,11 @@
       </c>
       <c r="H16" s="27">
         <f>RA!J20</f>
-        <v>21.076324091986098</v>
+        <v>6.8251829376694904</v>
       </c>
       <c r="I16" s="20">
         <f>VLOOKUP(B16,RMS!B:D,3,FALSE)</f>
-        <v>1312776.7079</v>
+        <v>1374377.0810185201</v>
       </c>
       <c r="J16" s="21">
         <f>VLOOKUP(B16,RMS!B:E,4,FALSE)</f>
@@ -59294,7 +59376,7 @@
       </c>
       <c r="K16" s="22">
         <f t="shared" si="1"/>
-        <v>309769.55209999997</v>
+        <v>-0.19241852010600269</v>
       </c>
       <c r="L16" s="22">
         <f t="shared" si="2"/>
@@ -59303,21 +59385,21 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="70"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D46,3,0)</f>
-        <v>414018.74560000002</v>
+        <v>341980.37719999999</v>
       </c>
       <c r="F17" s="25">
         <f>VLOOKUP(C17,RA!B21:I50,8,0)</f>
-        <v>101303.87910000001</v>
+        <v>29265.510699999999</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" si="0"/>
@@ -59325,11 +59407,11 @@
       </c>
       <c r="H17" s="27">
         <f>RA!J21</f>
-        <v>24.468428102981001</v>
+        <v>8.5576578807282502</v>
       </c>
       <c r="I17" s="20">
         <f>VLOOKUP(B17,RMS!B:D,3,FALSE)</f>
-        <v>330273.35753716802</v>
+        <v>341979.77487473702</v>
       </c>
       <c r="J17" s="21">
         <f>VLOOKUP(B17,RMS!B:E,4,FALSE)</f>
@@ -59337,7 +59419,7 @@
       </c>
       <c r="K17" s="22">
         <f t="shared" si="1"/>
-        <v>83745.388062832004</v>
+        <v>0.60232526296749711</v>
       </c>
       <c r="L17" s="22">
         <f t="shared" si="2"/>
@@ -59346,21 +59428,21 @@
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="70"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D47,3,0)</f>
-        <v>1474637.4169999999</v>
+        <v>1268775.3927</v>
       </c>
       <c r="F18" s="25">
         <f>VLOOKUP(C18,RA!B22:I51,8,0)</f>
-        <v>241836.77910000001</v>
+        <v>35974.754800000002</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" si="0"/>
@@ -59368,11 +59450,11 @@
       </c>
       <c r="H18" s="27">
         <f>RA!J22</f>
-        <v>16.399745205976998</v>
+        <v>2.83539190679324</v>
       </c>
       <c r="I18" s="20">
         <f>VLOOKUP(B18,RMS!B:D,3,FALSE)</f>
-        <v>1237891.6956019001</v>
+        <v>1268776.19049601</v>
       </c>
       <c r="J18" s="21">
         <f>VLOOKUP(B18,RMS!B:E,4,FALSE)</f>
@@ -59380,7 +59462,7 @@
       </c>
       <c r="K18" s="22">
         <f t="shared" si="1"/>
-        <v>236745.72139809979</v>
+        <v>-0.79779601003974676</v>
       </c>
       <c r="L18" s="22">
         <f t="shared" si="2"/>
@@ -59389,21 +59471,21 @@
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="70"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="65"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D48,3,0)</f>
-        <v>5749315.8526999997</v>
+        <v>5247069.6398</v>
       </c>
       <c r="F19" s="25">
         <f>VLOOKUP(C19,RA!B23:I52,8,0)</f>
-        <v>220843.8817</v>
+        <v>-281402.33120000002</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="0"/>
@@ -59411,11 +59493,11 @@
       </c>
       <c r="H19" s="27">
         <f>RA!J23</f>
-        <v>3.8412201965958599</v>
+        <v>-5.3630378576550797</v>
       </c>
       <c r="I19" s="20">
         <f>VLOOKUP(B19,RMS!B:D,3,FALSE)</f>
-        <v>4633033.8414940201</v>
+        <v>5247072.4127760697</v>
       </c>
       <c r="J19" s="21">
         <f>VLOOKUP(B19,RMS!B:E,4,FALSE)</f>
@@ -59423,7 +59505,7 @@
       </c>
       <c r="K19" s="22">
         <f t="shared" si="1"/>
-        <v>1116282.0112059796</v>
+        <v>-2.7729760697111487</v>
       </c>
       <c r="L19" s="22">
         <f t="shared" si="2"/>
@@ -59432,33 +59514,33 @@
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="70"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="65"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D49,3,0)</f>
-        <v>312784.53989999997</v>
+        <v>286001.1361</v>
       </c>
       <c r="F20" s="25">
         <f>VLOOKUP(C20,RA!B24:I53,8,0)</f>
-        <v>65408.7834</v>
+        <v>38625.3796</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" si="0"/>
-        <v>247375.75649999996</v>
+        <v>247375.75650000002</v>
       </c>
       <c r="H20" s="27">
         <f>RA!J24</f>
-        <v>20.911769942629402</v>
+        <v>13.5053238342713</v>
       </c>
       <c r="I20" s="20">
         <f>VLOOKUP(B20,RMS!B:D,3,FALSE)</f>
-        <v>282285.27386522997</v>
+        <v>286001.24255989603</v>
       </c>
       <c r="J20" s="21">
         <f>VLOOKUP(B20,RMS!B:E,4,FALSE)</f>
@@ -59466,42 +59548,42 @@
       </c>
       <c r="K20" s="22">
         <f t="shared" si="1"/>
-        <v>30499.26603477</v>
+        <v>-0.10645989602198824</v>
       </c>
       <c r="L20" s="22">
         <f t="shared" si="2"/>
-        <v>-3.9196730358526111E-3</v>
+        <v>-3.9196729776449502E-3</v>
       </c>
       <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="70"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="65"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D50,3,0)</f>
-        <v>318063.11060000001</v>
+        <v>316733.89020000002</v>
       </c>
       <c r="F21" s="25">
         <f>VLOOKUP(C21,RA!B25:I54,8,0)</f>
-        <v>24370.164700000001</v>
+        <v>23040.944299999999</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" si="0"/>
-        <v>293692.94589999999</v>
+        <v>293692.94590000005</v>
       </c>
       <c r="H21" s="27">
         <f>RA!J25</f>
-        <v>7.6620531862458598</v>
+        <v>7.2745433983875003</v>
       </c>
       <c r="I21" s="20">
         <f>VLOOKUP(B21,RMS!B:D,3,FALSE)</f>
-        <v>313464.97573946702</v>
+        <v>316733.86616910202</v>
       </c>
       <c r="J21" s="21">
         <f>VLOOKUP(B21,RMS!B:E,4,FALSE)</f>
@@ -59509,30 +59591,30 @@
       </c>
       <c r="K21" s="22">
         <f t="shared" si="1"/>
-        <v>4598.1348605329986</v>
+        <v>2.4030897999182343E-2</v>
       </c>
       <c r="L21" s="22">
         <f t="shared" si="2"/>
-        <v>-9.9521930096670985E-3</v>
+        <v>-9.9521929514594376E-3</v>
       </c>
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="70"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="65"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D51,3,0)</f>
-        <v>794967.67480000004</v>
+        <v>716532.42520000006</v>
       </c>
       <c r="F22" s="25">
         <f>VLOOKUP(C22,RA!B26:I55,8,0)</f>
-        <v>194631.7487</v>
+        <v>116196.4991</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" si="0"/>
@@ -59540,11 +59622,11 @@
       </c>
       <c r="H22" s="27">
         <f>RA!J26</f>
-        <v>24.482976461774498</v>
+        <v>16.216502563378999</v>
       </c>
       <c r="I22" s="20">
         <f>VLOOKUP(B22,RMS!B:D,3,FALSE)</f>
-        <v>694120.52035471599</v>
+        <v>716532.39868446998</v>
       </c>
       <c r="J22" s="21">
         <f>VLOOKUP(B22,RMS!B:E,4,FALSE)</f>
@@ -59552,7 +59634,7 @@
       </c>
       <c r="K22" s="22">
         <f t="shared" si="1"/>
-        <v>100847.15444528405</v>
+        <v>2.6515530073083937E-2</v>
       </c>
       <c r="L22" s="22">
         <f t="shared" si="2"/>
@@ -59561,21 +59643,21 @@
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="70"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="65"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D52,3,0)</f>
-        <v>209741.15479999999</v>
+        <v>206758.36559999999</v>
       </c>
       <c r="F23" s="25">
         <f>VLOOKUP(C23,RA!B27:I56,8,0)</f>
-        <v>59798.022900000004</v>
+        <v>56815.233699999997</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" si="0"/>
@@ -59583,11 +59665,11 @@
       </c>
       <c r="H23" s="27">
         <f>RA!J27</f>
-        <v>28.510390799087901</v>
+        <v>27.479049534525799</v>
       </c>
       <c r="I23" s="20">
         <f>VLOOKUP(B23,RMS!B:D,3,FALSE)</f>
-        <v>204175.90051660201</v>
+        <v>206758.16837629501</v>
       </c>
       <c r="J23" s="21">
         <f>VLOOKUP(B23,RMS!B:E,4,FALSE)</f>
@@ -59595,7 +59677,7 @@
       </c>
       <c r="K23" s="22">
         <f t="shared" si="1"/>
-        <v>5565.2542833979824</v>
+        <v>0.19722370497765951</v>
       </c>
       <c r="L23" s="22">
         <f t="shared" si="2"/>
@@ -59604,21 +59686,21 @@
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="70"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="65"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D53,3,0)</f>
-        <v>864721.7916</v>
+        <v>858162.72560000001</v>
       </c>
       <c r="F24" s="25">
         <f>VLOOKUP(C24,RA!B28:I57,8,0)</f>
-        <v>43289.173300000002</v>
+        <v>36730.107300000003</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" si="0"/>
@@ -59626,11 +59708,11 @@
       </c>
       <c r="H24" s="27">
         <f>RA!J28</f>
-        <v>5.0061388206606603</v>
+        <v>4.2800865388693596</v>
       </c>
       <c r="I24" s="20">
         <f>VLOOKUP(B24,RMS!B:D,3,FALSE)</f>
-        <v>843855.28346991201</v>
+        <v>858163.66602991102</v>
       </c>
       <c r="J24" s="21">
         <f>VLOOKUP(B24,RMS!B:E,4,FALSE)</f>
@@ -59638,7 +59720,7 @@
       </c>
       <c r="K24" s="22">
         <f t="shared" si="1"/>
-        <v>20866.508130087983</v>
+        <v>-0.94042991101741791</v>
       </c>
       <c r="L24" s="22">
         <f t="shared" si="2"/>
@@ -59647,33 +59729,33 @@
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="70"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="65"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D54,3,0)</f>
-        <v>566516.04059999995</v>
+        <v>561418.77610000002</v>
       </c>
       <c r="F25" s="25">
         <f>VLOOKUP(C25,RA!B29:I58,8,0)</f>
-        <v>95587.733200000002</v>
+        <v>90490.468699999998</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" si="0"/>
-        <v>470928.30739999993</v>
+        <v>470928.30740000005</v>
       </c>
       <c r="H25" s="27">
         <f>RA!J29</f>
-        <v>16.872908505602499</v>
+        <v>16.118176404538701</v>
       </c>
       <c r="I25" s="20">
         <f>VLOOKUP(B25,RMS!B:D,3,FALSE)</f>
-        <v>555502.56184513296</v>
+        <v>561419.175898407</v>
       </c>
       <c r="J25" s="21">
         <f>VLOOKUP(B25,RMS!B:E,4,FALSE)</f>
@@ -59681,30 +59763,30 @@
       </c>
       <c r="K25" s="22">
         <f t="shared" si="1"/>
-        <v>11013.478754866985</v>
+        <v>-0.39979840698651969</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="2"/>
-        <v>1.0716419958043844E-2</v>
+        <v>1.0716420074459165E-2</v>
       </c>
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="70"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="65"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D55,3,0)</f>
-        <v>1216428.3041000001</v>
+        <v>1211832.8744000001</v>
       </c>
       <c r="F26" s="25">
         <f>VLOOKUP(C26,RA!B30:I59,8,0)</f>
-        <v>169626.24669999999</v>
+        <v>165030.81700000001</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" si="0"/>
@@ -59712,11 +59794,11 @@
       </c>
       <c r="H26" s="27">
         <f>RA!J30</f>
-        <v>13.9446152418742</v>
+        <v>13.6182819006053</v>
       </c>
       <c r="I26" s="20">
         <f>VLOOKUP(B26,RMS!B:D,3,FALSE)</f>
-        <v>1190832.11231416</v>
+        <v>1211832.8632581099</v>
       </c>
       <c r="J26" s="21">
         <f>VLOOKUP(B26,RMS!B:E,4,FALSE)</f>
@@ -59724,7 +59806,7 @@
       </c>
       <c r="K26" s="22">
         <f t="shared" si="1"/>
-        <v>25596.191785840085</v>
+        <v>1.1141890194267035E-2</v>
       </c>
       <c r="L26" s="22">
         <f t="shared" si="2"/>
@@ -59733,33 +59815,33 @@
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="70"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="65"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D56,3,0)</f>
-        <v>3804212.5865000002</v>
+        <v>3149330.9290999998</v>
       </c>
       <c r="F27" s="25">
         <f>VLOOKUP(C27,RA!B31:I60,8,0)</f>
-        <v>542525.98829999997</v>
+        <v>-112355.6691</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" si="0"/>
-        <v>3261686.5982000004</v>
+        <v>3261686.5981999999</v>
       </c>
       <c r="H27" s="27">
         <f>RA!J31</f>
-        <v>14.2611900876744</v>
+        <v>-3.5676044096168802</v>
       </c>
       <c r="I27" s="20">
         <f>VLOOKUP(B27,RMS!B:D,3,FALSE)</f>
-        <v>3131053.4982858398</v>
+        <v>3149331.0622715</v>
       </c>
       <c r="J27" s="21">
         <f>VLOOKUP(B27,RMS!B:E,4,FALSE)</f>
@@ -59767,30 +59849,30 @@
       </c>
       <c r="K27" s="22">
         <f t="shared" si="1"/>
-        <v>673159.08821416041</v>
+        <v>-0.13317150017246604</v>
       </c>
       <c r="L27" s="22">
         <f t="shared" si="2"/>
-        <v>0.30724071012809873</v>
+        <v>0.30724070966243744</v>
       </c>
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="70"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="65"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D57,3,0)</f>
-        <v>101046.5843</v>
+        <v>99492.2889</v>
       </c>
       <c r="F28" s="25">
         <f>VLOOKUP(C28,RA!B32:I61,8,0)</f>
-        <v>24901.1113</v>
+        <v>23346.815900000001</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" si="0"/>
@@ -59798,11 +59880,11 @@
       </c>
       <c r="H28" s="27">
         <f>RA!J32</f>
-        <v>24.6431994436055</v>
+        <v>23.465955159063601</v>
       </c>
       <c r="I28" s="20">
         <f>VLOOKUP(B28,RMS!B:D,3,FALSE)</f>
-        <v>98729.299483594295</v>
+        <v>99492.236562786493</v>
       </c>
       <c r="J28" s="21">
         <f>VLOOKUP(B28,RMS!B:E,4,FALSE)</f>
@@ -59810,7 +59892,7 @@
       </c>
       <c r="K28" s="22">
         <f t="shared" si="1"/>
-        <v>2317.2848164057068</v>
+        <v>5.2337213506689295E-2</v>
       </c>
       <c r="L28" s="22">
         <f t="shared" si="2"/>
@@ -59819,14 +59901,14 @@
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="70"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="65"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D58,3,0)</f>
         <v>0</v>
@@ -59862,21 +59944,21 @@
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="70"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="65"/>
+      <c r="D30" s="66"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D60,3,0)</f>
-        <v>201423.2702</v>
+        <v>192855.4117</v>
       </c>
       <c r="F30" s="25">
         <f>VLOOKUP(C30,RA!B34:I64,8,0)</f>
-        <v>31829.8845</v>
+        <v>23262.026000000002</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" si="0"/>
@@ -59884,11 +59966,11 @@
       </c>
       <c r="H30" s="27">
         <f>RA!J34</f>
-        <v>15.8024862114467</v>
+        <v>12.061899531336801</v>
       </c>
       <c r="I30" s="20">
         <f>VLOOKUP(B30,RMS!B:D,3,FALSE)</f>
-        <v>191124.27129999999</v>
+        <v>192855.41072171601</v>
       </c>
       <c r="J30" s="21">
         <f>VLOOKUP(B30,RMS!B:E,4,FALSE)</f>
@@ -59896,7 +59978,7 @@
       </c>
       <c r="K30" s="22">
         <f t="shared" si="1"/>
-        <v>10298.998900000006</v>
+        <v>9.782839915715158E-4</v>
       </c>
       <c r="L30" s="22">
         <f t="shared" si="2"/>
@@ -59905,7 +59987,7 @@
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" s="36" customFormat="1" ht="12" thickBot="1">
-      <c r="A31" s="70"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="12">
         <v>43</v>
       </c>
@@ -59915,11 +59997,11 @@
       <c r="D31" s="42"/>
       <c r="E31" s="15">
         <f>VLOOKUP(C31,RA!B35:D61,3,0)</f>
-        <v>12770.0494</v>
+        <v>12630.3495</v>
       </c>
       <c r="F31" s="25">
         <f>VLOOKUP(C31,RA!B35:I65,8,0)</f>
-        <v>677.52139999999997</v>
+        <v>537.82150000000001</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" si="0"/>
@@ -59927,11 +60009,11 @@
       </c>
       <c r="H31" s="27">
         <f>RA!J35</f>
-        <v>5.3055503450127599</v>
+        <v>4.2581679944802797</v>
       </c>
       <c r="I31" s="20">
         <f>VLOOKUP(B31,RMS!B:D,3,FALSE)</f>
-        <v>12241.9064</v>
+        <v>12630.3591777778</v>
       </c>
       <c r="J31" s="21">
         <f>VLOOKUP(B31,RMS!B:E,4,FALSE)</f>
@@ -59939,7 +60021,7 @@
       </c>
       <c r="K31" s="22">
         <f t="shared" si="1"/>
-        <v>528.14300000000003</v>
+        <v>-9.67777779987955E-3</v>
       </c>
       <c r="L31" s="22">
         <f t="shared" si="2"/>
@@ -59947,14 +60029,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1">
-      <c r="A32" s="70"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="12">
         <v>70</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="72"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D61,3,0)</f>
         <v>132965.85</v>
@@ -59969,7 +60051,7 @@
       </c>
       <c r="H32" s="27">
         <f>RA!J34</f>
-        <v>15.8024862114467</v>
+        <v>12.061899531336801</v>
       </c>
       <c r="I32" s="20">
         <f>VLOOKUP(B32,RMS!B:D,3,FALSE)</f>
@@ -59989,14 +60071,14 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="70"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="12">
         <v>71</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="65"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="15">
         <f>VLOOKUP(C33,RA!B34:D61,3,0)</f>
         <v>230946.22</v>
@@ -60011,7 +60093,7 @@
       </c>
       <c r="H33" s="27">
         <f>RA!J34</f>
-        <v>15.8024862114467</v>
+        <v>12.061899531336801</v>
       </c>
       <c r="I33" s="20">
         <f>VLOOKUP(B33,RMS!B:D,3,FALSE)</f>
@@ -60032,14 +60114,14 @@
       <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="70"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="12">
         <v>72</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="65"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="15">
         <f>VLOOKUP(C34,RA!B34:D62,3,0)</f>
         <v>577431.69999999995</v>
@@ -60054,7 +60136,7 @@
       </c>
       <c r="H34" s="27">
         <f>RA!J35</f>
-        <v>5.3055503450127599</v>
+        <v>4.2581679944802797</v>
       </c>
       <c r="I34" s="20">
         <f>VLOOKUP(B34,RMS!B:D,3,FALSE)</f>
@@ -60075,14 +60157,14 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="70"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="12">
         <v>73</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="65"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="15">
         <f>VLOOKUP(C35,RA!B34:D63,3,0)</f>
         <v>268095.09000000003</v>
@@ -60097,7 +60179,7 @@
       </c>
       <c r="H35" s="27">
         <f>RA!J34</f>
-        <v>15.8024862114467</v>
+        <v>12.061899531336801</v>
       </c>
       <c r="I35" s="20">
         <f>VLOOKUP(B35,RMS!B:D,3,FALSE)</f>
@@ -60118,14 +60200,14 @@
       <c r="M35" s="32"/>
     </row>
     <row r="36" spans="1:13" s="35" customFormat="1">
-      <c r="A36" s="70"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="12">
         <v>74</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="65"/>
+      <c r="D36" s="66"/>
       <c r="E36" s="15">
         <f>VLOOKUP(C36,RA!B35:D64,3,0)</f>
         <v>19.71</v>
@@ -60140,7 +60222,7 @@
       </c>
       <c r="H36" s="27">
         <f>RA!J35</f>
-        <v>5.3055503450127599</v>
+        <v>4.2581679944802797</v>
       </c>
       <c r="I36" s="20">
         <f>VLOOKUP(B36,RMS!B:D,3,FALSE)</f>
@@ -60160,14 +60242,14 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A37" s="70"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="12">
         <v>75</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="65"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="15">
         <f>VLOOKUP(C37,RA!B8:D64,3,0)</f>
         <v>86130.7693</v>
@@ -60182,7 +60264,7 @@
       </c>
       <c r="H37" s="27">
         <f>RA!J35</f>
-        <v>5.3055503450127599</v>
+        <v>4.2581679944802797</v>
       </c>
       <c r="I37" s="20">
         <f>VLOOKUP(B37,RMS!B:D,3,FALSE)</f>
@@ -60203,25 +60285,25 @@
       <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="70"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="12">
         <v>76</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="65"/>
+      <c r="D38" s="66"/>
       <c r="E38" s="15">
         <f>VLOOKUP(C38,RA!B8:D65,3,0)</f>
-        <v>533961.6618</v>
+        <v>507314.39179999998</v>
       </c>
       <c r="F38" s="25">
         <f>VLOOKUP(C38,RA!B8:I69,8,0)</f>
-        <v>55131.592600000004</v>
+        <v>28484.3226</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" si="0"/>
-        <v>478830.06920000003</v>
+        <v>478830.06919999997</v>
       </c>
       <c r="H38" s="27">
         <f>RA!J36</f>
@@ -60229,7 +60311,7 @@
       </c>
       <c r="I38" s="20">
         <f>VLOOKUP(B38,RMS!B:D,3,FALSE)</f>
-        <v>506374.21674615401</v>
+        <v>507314.387686325</v>
       </c>
       <c r="J38" s="21">
         <f>VLOOKUP(B38,RMS!B:E,4,FALSE)</f>
@@ -60237,23 +60319,23 @@
       </c>
       <c r="K38" s="22">
         <f t="shared" si="1"/>
-        <v>27587.445053845993</v>
+        <v>4.1136749787256122E-3</v>
       </c>
       <c r="L38" s="22">
         <f t="shared" si="2"/>
-        <v>-8.2734995521605015E-4</v>
+        <v>-8.2735001342371106E-4</v>
       </c>
       <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="70"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="12">
         <v>77</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="65"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="15">
         <f>VLOOKUP(C39,RA!B9:D66,3,0)</f>
         <v>167423.17000000001</v>
@@ -60289,14 +60371,14 @@
       <c r="M39" s="32"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="70"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="12">
         <v>78</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="65"/>
+      <c r="D40" s="66"/>
       <c r="E40" s="15">
         <f>VLOOKUP(C40,RA!B10:D67,3,0)</f>
         <v>75676.98</v>
@@ -60332,14 +60414,14 @@
       <c r="M40" s="32"/>
     </row>
     <row r="41" spans="1:13" s="36" customFormat="1">
-      <c r="A41" s="70"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="12">
         <v>9101</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="67"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="15">
         <f>VLOOKUP(C41,RA!B11:D68,3,0)</f>
         <v>0</v>
@@ -60374,14 +60456,14 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="70"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="12">
         <v>99</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="65"/>
+      <c r="D42" s="66"/>
       <c r="E42" s="15">
         <f>VLOOKUP(C42,RA!B8:D68,3,0)</f>
         <v>8409.1218000000008</v>
@@ -60418,6 +60500,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -60434,31 +60541,6 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -60692,25 +60774,25 @@
       <c r="B7" s="79"/>
       <c r="C7" s="80"/>
       <c r="D7" s="53">
-        <v>28581981.226599999</v>
+        <v>26109278.9309</v>
       </c>
       <c r="E7" s="53">
         <v>17366440.350499999</v>
       </c>
       <c r="F7" s="54">
-        <v>164.581691179892</v>
+        <v>150.34329663389099</v>
       </c>
       <c r="G7" s="53">
         <v>31378350.168200001</v>
       </c>
       <c r="H7" s="54">
-        <v>-8.9117781100994602</v>
+        <v>-16.792059522109199</v>
       </c>
       <c r="I7" s="53">
-        <v>3747132.3917999999</v>
+        <v>1274430.0959999999</v>
       </c>
       <c r="J7" s="54">
-        <v>13.1101212406952</v>
+        <v>4.8811386150221399</v>
       </c>
       <c r="K7" s="53">
         <v>-884268.07900000003</v>
@@ -60719,13 +60801,13 @@
         <v>-2.8180834054689998</v>
       </c>
       <c r="M7" s="54">
-        <v>-5.23755248073362</v>
+        <v>-2.4412259429756</v>
       </c>
       <c r="N7" s="53">
-        <v>587863538.50349998</v>
+        <v>584916529.3312</v>
       </c>
       <c r="O7" s="53">
-        <v>4035356274.2912002</v>
+        <v>4032409265.1188998</v>
       </c>
       <c r="P7" s="53">
         <v>981479</v>
@@ -60737,43 +60819,43 @@
         <v>6.5505857422169598</v>
       </c>
       <c r="S7" s="53">
-        <v>29.121337518785399</v>
+        <v>26.601974093077899</v>
       </c>
       <c r="T7" s="53">
-        <v>26.636318755258401</v>
+        <v>26.243491917289401</v>
       </c>
       <c r="U7" s="55">
-        <v>8.5333263347673203</v>
+        <v>1.34757734344921</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12" thickBot="1">
       <c r="A8" s="81">
         <v>42550</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="72"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="56">
-        <v>1699538.1784999999</v>
+        <v>1616620.091</v>
       </c>
       <c r="E8" s="56">
         <v>643946.40209999995</v>
       </c>
       <c r="F8" s="57">
-        <v>263.92540946848499</v>
+        <v>251.04885837205899</v>
       </c>
       <c r="G8" s="56">
         <v>570814.63560000004</v>
       </c>
       <c r="H8" s="57">
-        <v>197.73906843043099</v>
+        <v>183.21279626979501</v>
       </c>
       <c r="I8" s="56">
-        <v>368666.20480000001</v>
+        <v>285748.11729999998</v>
       </c>
       <c r="J8" s="57">
-        <v>21.692140221609002</v>
+        <v>17.675650506313001</v>
       </c>
       <c r="K8" s="56">
         <v>136804.56140000001</v>
@@ -60782,13 +60864,13 @@
         <v>23.9665476089625</v>
       </c>
       <c r="M8" s="57">
-        <v>1.69483854213066</v>
+        <v>1.08873238125816</v>
       </c>
       <c r="N8" s="56">
-        <v>18916166.484099999</v>
+        <v>18739164.246100001</v>
       </c>
       <c r="O8" s="56">
-        <v>144372879.25389999</v>
+        <v>144195877.01589999</v>
       </c>
       <c r="P8" s="56">
         <v>33602</v>
@@ -60800,41 +60882,41 @@
         <v>11.2722696867342</v>
       </c>
       <c r="S8" s="56">
-        <v>50.578482783762901</v>
+        <v>48.1108294446759</v>
       </c>
       <c r="T8" s="56">
-        <v>46.9762755679184</v>
+        <v>44.965209490694697</v>
       </c>
       <c r="U8" s="58">
-        <v>7.12201516847571</v>
+        <v>6.5382783674482603</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="12" thickBot="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="56">
-        <v>116637.9645</v>
+        <v>116640.6911</v>
       </c>
       <c r="E9" s="56">
         <v>98843.705199999997</v>
       </c>
       <c r="F9" s="57">
-        <v>118.002420350386</v>
+        <v>118.005178846736</v>
       </c>
       <c r="G9" s="56">
         <v>86555.653200000001</v>
       </c>
       <c r="H9" s="57">
-        <v>34.754877570492397</v>
+        <v>34.7580276824715</v>
       </c>
       <c r="I9" s="56">
-        <v>26927.505300000001</v>
+        <v>26930.231899999999</v>
       </c>
       <c r="J9" s="57">
-        <v>23.086398511352598</v>
+        <v>23.0881964484519</v>
       </c>
       <c r="K9" s="56">
         <v>17887.8812</v>
@@ -60843,13 +60925,13 @@
         <v>20.666334940211598</v>
       </c>
       <c r="M9" s="57">
-        <v>0.50534906839609395</v>
+        <v>0.50550149561592606</v>
       </c>
       <c r="N9" s="56">
-        <v>2727672.4896</v>
+        <v>2724471.6741999998</v>
       </c>
       <c r="O9" s="56">
-        <v>20329573.6919</v>
+        <v>20326372.876499999</v>
       </c>
       <c r="P9" s="56">
         <v>5433</v>
@@ -60861,41 +60943,41 @@
         <v>14.6686365555087</v>
       </c>
       <c r="S9" s="56">
-        <v>21.468427112092801</v>
+        <v>21.4689289711025</v>
       </c>
       <c r="T9" s="56">
-        <v>20.507480392570699</v>
+        <v>20.078988898269301</v>
       </c>
       <c r="U9" s="58">
-        <v>4.47609279666686</v>
+        <v>6.4741938207727401</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="12" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="72"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="56">
-        <v>223187.91759999999</v>
+        <v>223751.91020000001</v>
       </c>
       <c r="E10" s="56">
         <v>147440.8173</v>
       </c>
       <c r="F10" s="57">
-        <v>151.37457977181199</v>
+        <v>151.757101118565</v>
       </c>
       <c r="G10" s="56">
         <v>130694.95480000001</v>
       </c>
       <c r="H10" s="57">
-        <v>70.770109635479201</v>
+        <v>71.201643202221007</v>
       </c>
       <c r="I10" s="56">
-        <v>62447.493300000002</v>
+        <v>63011.4859</v>
       </c>
       <c r="J10" s="57">
-        <v>27.979782226347499</v>
+        <v>28.1613175251453</v>
       </c>
       <c r="K10" s="56">
         <v>34147.870999999999</v>
@@ -60904,13 +60986,13 @@
         <v>26.1279182905383</v>
       </c>
       <c r="M10" s="57">
-        <v>0.82873753095764002</v>
+        <v>0.84525371728152598</v>
       </c>
       <c r="N10" s="56">
-        <v>5304404.6410999997</v>
+        <v>5291747.2159000002</v>
       </c>
       <c r="O10" s="56">
-        <v>36132075.013999999</v>
+        <v>36119417.588799998</v>
       </c>
       <c r="P10" s="56">
         <v>99107</v>
@@ -60922,41 +61004,41 @@
         <v>6.0955113313992699</v>
       </c>
       <c r="S10" s="56">
-        <v>2.2519894417145099</v>
+        <v>2.2576801860615299</v>
       </c>
       <c r="T10" s="56">
-        <v>2.30263987881772</v>
+        <v>2.2172566859002498</v>
       </c>
       <c r="U10" s="58">
-        <v>-2.2491418549747499</v>
+        <v>1.7904883256205499</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="12" thickBot="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="56">
-        <v>107394.6538</v>
+        <v>104608.65889999999</v>
       </c>
       <c r="E11" s="56">
         <v>66460.8655</v>
       </c>
       <c r="F11" s="57">
-        <v>161.59081437180501</v>
+        <v>157.39888145152099</v>
       </c>
       <c r="G11" s="56">
         <v>58925.572500000002</v>
       </c>
       <c r="H11" s="57">
-        <v>82.254748224974804</v>
+        <v>77.526758692077195</v>
       </c>
       <c r="I11" s="56">
-        <v>24190.777399999999</v>
+        <v>21404.782500000001</v>
       </c>
       <c r="J11" s="57">
-        <v>22.5251225680659</v>
+        <v>20.461769345940802</v>
       </c>
       <c r="K11" s="56">
         <v>12907.15</v>
@@ -60965,13 +61047,13 @@
         <v>21.9041571467125</v>
       </c>
       <c r="M11" s="57">
-        <v>0.87421525278624601</v>
+        <v>0.65836629310111106</v>
       </c>
       <c r="N11" s="56">
-        <v>2077423.6454</v>
+        <v>2068809.8274999999</v>
       </c>
       <c r="O11" s="56">
-        <v>12237694.3671</v>
+        <v>12229080.5492</v>
       </c>
       <c r="P11" s="56">
         <v>3800</v>
@@ -60983,41 +61065,41 @@
         <v>11.4696391903784</v>
       </c>
       <c r="S11" s="56">
-        <v>28.261751</v>
+        <v>27.528594447368398</v>
       </c>
       <c r="T11" s="56">
-        <v>27.423883514227001</v>
+        <v>26.35320049868</v>
       </c>
       <c r="U11" s="58">
-        <v>2.9646694069767898</v>
+        <v>4.2697201665550804</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12" thickBot="1">
       <c r="A12" s="82"/>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="56">
-        <v>808267.22919999994</v>
+        <v>748788.81299999997</v>
       </c>
       <c r="E12" s="56">
         <v>270618.03840000002</v>
       </c>
       <c r="F12" s="57">
-        <v>298.67455768240501</v>
+        <v>276.69582464906398</v>
       </c>
       <c r="G12" s="56">
         <v>245172.4388</v>
       </c>
       <c r="H12" s="57">
-        <v>229.67295718722499</v>
+        <v>205.41312745631501</v>
       </c>
       <c r="I12" s="56">
-        <v>290961.7758</v>
+        <v>231483.3596</v>
       </c>
       <c r="J12" s="57">
-        <v>35.998215106158099</v>
+        <v>30.914372060737499</v>
       </c>
       <c r="K12" s="56">
         <v>36177.417099999999</v>
@@ -61026,13 +61108,13 @@
         <v>14.7559070167393</v>
       </c>
       <c r="M12" s="57">
-        <v>7.0426354097014903</v>
+        <v>5.39855960308455</v>
       </c>
       <c r="N12" s="56">
-        <v>9693809.5775000006</v>
+        <v>9558921.5896000005</v>
       </c>
       <c r="O12" s="56">
-        <v>44601701.179899998</v>
+        <v>44466813.192000002</v>
       </c>
       <c r="P12" s="56">
         <v>5884</v>
@@ -61044,41 +61126,41 @@
         <v>-5.0814647523794196</v>
       </c>
       <c r="S12" s="56">
-        <v>137.36696621345999</v>
+        <v>127.25846583956501</v>
       </c>
       <c r="T12" s="56">
-        <v>131.951119374093</v>
+        <v>122.216018825617</v>
       </c>
       <c r="U12" s="58">
-        <v>3.9426122514431401</v>
+        <v>3.9623666533155499</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="12" thickBot="1">
       <c r="A13" s="82"/>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="56">
-        <v>579734.72349999996</v>
+        <v>547718.34840000002</v>
       </c>
       <c r="E13" s="56">
         <v>294851.2009</v>
       </c>
       <c r="F13" s="57">
-        <v>196.619420823258</v>
+        <v>185.76093525417301</v>
       </c>
       <c r="G13" s="56">
         <v>269821.05459999997</v>
       </c>
       <c r="H13" s="57">
-        <v>114.858964345624</v>
+        <v>102.99318346819599</v>
       </c>
       <c r="I13" s="56">
-        <v>177630.62109999999</v>
+        <v>145614.24600000001</v>
       </c>
       <c r="J13" s="57">
-        <v>30.639983064599001</v>
+        <v>26.585606712897199</v>
       </c>
       <c r="K13" s="56">
         <v>71104.958400000003</v>
@@ -61087,13 +61169,13 @@
         <v>26.352635269849699</v>
       </c>
       <c r="M13" s="57">
-        <v>1.4981467551213701</v>
+        <v>1.04787752185789</v>
       </c>
       <c r="N13" s="56">
-        <v>8038714.4252000004</v>
+        <v>7967987.2588999998</v>
       </c>
       <c r="O13" s="56">
-        <v>62610661.4494</v>
+        <v>62539934.283100002</v>
       </c>
       <c r="P13" s="56">
         <v>14829</v>
@@ -61105,41 +61187,41 @@
         <v>15.248309629284201</v>
       </c>
       <c r="S13" s="56">
-        <v>39.094660698631102</v>
+        <v>36.935622658304702</v>
       </c>
       <c r="T13" s="56">
-        <v>37.146759120230101</v>
+        <v>35.2665774461802</v>
       </c>
       <c r="U13" s="58">
-        <v>4.9825258579855598</v>
+        <v>4.5187953850542497</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="12" thickBot="1">
       <c r="A14" s="82"/>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="56">
-        <v>129528.10799999999</v>
+        <v>120839.60189999999</v>
       </c>
       <c r="E14" s="56">
         <v>170012.91130000001</v>
       </c>
       <c r="F14" s="57">
-        <v>76.187218376278693</v>
+        <v>71.076720571398198</v>
       </c>
       <c r="G14" s="56">
         <v>162895.81270000001</v>
       </c>
       <c r="H14" s="57">
-        <v>-20.484077611898002</v>
+        <v>-25.817858730017601</v>
       </c>
       <c r="I14" s="56">
-        <v>34603.565799999997</v>
+        <v>25915.059700000002</v>
       </c>
       <c r="J14" s="57">
-        <v>26.715101713675899</v>
+        <v>21.4458333961128</v>
       </c>
       <c r="K14" s="56">
         <v>29976.1126</v>
@@ -61148,13 +61230,13 @@
         <v>18.402015437441602</v>
       </c>
       <c r="M14" s="57">
-        <v>0.15437135767898</v>
+        <v>-0.135476302554321</v>
       </c>
       <c r="N14" s="56">
-        <v>3882217.4336999999</v>
+        <v>3872861.8314999999</v>
       </c>
       <c r="O14" s="56">
-        <v>28437630.142299999</v>
+        <v>28428274.540100001</v>
       </c>
       <c r="P14" s="56">
         <v>2639</v>
@@ -61166,41 +61248,41 @@
         <v>20.7780320366133</v>
       </c>
       <c r="S14" s="56">
-        <v>49.082269041303498</v>
+        <v>45.789921144372897</v>
       </c>
       <c r="T14" s="56">
-        <v>47.672035606407299</v>
+        <v>47.496554782608698</v>
       </c>
       <c r="U14" s="58">
-        <v>2.8732034244575302</v>
+        <v>-3.7270945124690402</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12" thickBot="1">
       <c r="A15" s="82"/>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="72"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="56">
-        <v>183682.14569999999</v>
+        <v>166028.66029999999</v>
       </c>
       <c r="E15" s="56">
         <v>131863.4626</v>
       </c>
       <c r="F15" s="57">
-        <v>139.29722614458299</v>
+        <v>125.909525676296</v>
       </c>
       <c r="G15" s="56">
         <v>125264.60950000001</v>
       </c>
       <c r="H15" s="57">
-        <v>46.635307796173699</v>
+        <v>32.542352514977502</v>
       </c>
       <c r="I15" s="56">
-        <v>39932.183900000004</v>
+        <v>22278.698499999999</v>
       </c>
       <c r="J15" s="57">
-        <v>21.739828739380901</v>
+        <v>13.418585959643501</v>
       </c>
       <c r="K15" s="56">
         <v>23765.135900000001</v>
@@ -61209,13 +61291,13 @@
         <v>18.971947459749199</v>
       </c>
       <c r="M15" s="57">
-        <v>0.680284264648367</v>
+        <v>-6.2546976640684995E-2</v>
       </c>
       <c r="N15" s="56">
-        <v>3491026.5373999998</v>
+        <v>3464553.0945000001</v>
       </c>
       <c r="O15" s="56">
-        <v>23965447.805199999</v>
+        <v>23938974.362300001</v>
       </c>
       <c r="P15" s="56">
         <v>6430</v>
@@ -61227,41 +61309,41 @@
         <v>15.522817103844799</v>
       </c>
       <c r="S15" s="56">
-        <v>28.566430124416801</v>
+        <v>25.820942503887998</v>
       </c>
       <c r="T15" s="56">
-        <v>25.114870499460999</v>
+        <v>24.139417463169199</v>
       </c>
       <c r="U15" s="58">
-        <v>12.0825724807861</v>
+        <v>6.5122527594241904</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12" thickBot="1">
       <c r="A16" s="82"/>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="72"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="56">
-        <v>1490343.4291000001</v>
+        <v>1400423.5996000001</v>
       </c>
       <c r="E16" s="56">
         <v>936220.83230000001</v>
       </c>
       <c r="F16" s="57">
-        <v>159.18716799312099</v>
+        <v>149.58261462304799</v>
       </c>
       <c r="G16" s="56">
         <v>811323.35869999998</v>
       </c>
       <c r="H16" s="57">
-        <v>83.692902850474795</v>
+        <v>72.609796646792901</v>
       </c>
       <c r="I16" s="56">
-        <v>122931.908</v>
+        <v>33012.078500000003</v>
       </c>
       <c r="J16" s="57">
-        <v>8.2485624185451698</v>
+        <v>2.3572923584999002</v>
       </c>
       <c r="K16" s="56">
         <v>41513.252</v>
@@ -61270,13 +61352,13 @@
         <v>5.1167332426515504</v>
       </c>
       <c r="M16" s="57">
-        <v>1.96126904247347</v>
+        <v>-0.204782162091276</v>
       </c>
       <c r="N16" s="56">
-        <v>32997268.187899999</v>
+        <v>32883405.5836</v>
       </c>
       <c r="O16" s="56">
-        <v>205391422.09060001</v>
+        <v>205277559.48629999</v>
       </c>
       <c r="P16" s="56">
         <v>55574</v>
@@ -61288,41 +61370,41 @@
         <v>10.417039200492701</v>
       </c>
       <c r="S16" s="56">
-        <v>26.817278387375399</v>
+        <v>25.199258638931902</v>
       </c>
       <c r="T16" s="56">
-        <v>24.783824142178801</v>
+        <v>24.384148747292901</v>
       </c>
       <c r="U16" s="58">
-        <v>7.5826271996113404</v>
+        <v>3.2346582227607299</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="12" thickBot="1">
       <c r="A17" s="82"/>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="72"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="56">
-        <v>852144.00509999995</v>
+        <v>774048.61170000001</v>
       </c>
       <c r="E17" s="56">
         <v>550682.92220000003</v>
       </c>
       <c r="F17" s="57">
-        <v>154.74313270795699</v>
+        <v>140.56157917657001</v>
       </c>
       <c r="G17" s="56">
         <v>631189.23580000002</v>
       </c>
       <c r="H17" s="57">
-        <v>35.006105422560204</v>
+        <v>22.633366951978001</v>
       </c>
       <c r="I17" s="56">
-        <v>134512.8781</v>
+        <v>56417.484700000001</v>
       </c>
       <c r="J17" s="57">
-        <v>15.7852284701827</v>
+        <v>7.2886229426978</v>
       </c>
       <c r="K17" s="56">
         <v>50661.145100000002</v>
@@ -61331,13 +61413,13 @@
         <v>8.0263005492781598</v>
       </c>
       <c r="M17" s="57">
-        <v>1.65514878975762</v>
+        <v>0.113624348376602</v>
       </c>
       <c r="N17" s="56">
-        <v>23563778.799699999</v>
+        <v>23480218.0955</v>
       </c>
       <c r="O17" s="56">
-        <v>221937929.4366</v>
+        <v>221854368.7324</v>
       </c>
       <c r="P17" s="56">
         <v>14854</v>
@@ -61349,41 +61431,41 @@
         <v>5.8278711883727601</v>
       </c>
       <c r="S17" s="56">
-        <v>57.367982031776002</v>
+        <v>52.110449151743602</v>
       </c>
       <c r="T17" s="56">
-        <v>55.139906319464203</v>
+        <v>54.550098952693098</v>
       </c>
       <c r="U17" s="58">
-        <v>3.8838314219900498</v>
+        <v>-4.6816902188758203</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A18" s="82"/>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="72"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="56">
-        <v>2011845.2823000001</v>
+        <v>1822489.9558000001</v>
       </c>
       <c r="E18" s="56">
         <v>1477399.4068</v>
       </c>
       <c r="F18" s="57">
-        <v>136.17477257944699</v>
+        <v>123.35797262484699</v>
       </c>
       <c r="G18" s="56">
         <v>1310565.4129999999</v>
       </c>
       <c r="H18" s="57">
-        <v>53.509718961277102</v>
+        <v>39.061349988487798</v>
       </c>
       <c r="I18" s="56">
-        <v>400769.64559999999</v>
+        <v>211414.31899999999</v>
       </c>
       <c r="J18" s="57">
-        <v>19.920500305164001</v>
+        <v>11.600300913987599</v>
       </c>
       <c r="K18" s="56">
         <v>205508.74119999999</v>
@@ -61392,13 +61474,13 @@
         <v>15.680922078477</v>
       </c>
       <c r="M18" s="57">
-        <v>0.95013430212184102</v>
+        <v>2.8736382528141001E-2</v>
       </c>
       <c r="N18" s="56">
-        <v>47029433.049199998</v>
+        <v>46828750.650300004</v>
       </c>
       <c r="O18" s="56">
-        <v>425823942.02219999</v>
+        <v>425623259.62330002</v>
       </c>
       <c r="P18" s="56">
         <v>81337</v>
@@ -61410,41 +61492,41 @@
         <v>12.737882379031699</v>
       </c>
       <c r="S18" s="56">
-        <v>24.7346875628558</v>
+        <v>22.406653254976199</v>
       </c>
       <c r="T18" s="56">
-        <v>30.322661132133</v>
+        <v>30.231172063980502</v>
       </c>
       <c r="U18" s="58">
-        <v>-22.5916480856169</v>
+        <v>-34.920515437826701</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A19" s="82"/>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="72"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="56">
-        <v>635423.93429999996</v>
+        <v>568955.51540000003</v>
       </c>
       <c r="E19" s="56">
         <v>527924.36219999997</v>
       </c>
       <c r="F19" s="57">
-        <v>120.36268446715</v>
+        <v>107.77216513157499</v>
       </c>
       <c r="G19" s="56">
         <v>480819.72389999998</v>
       </c>
       <c r="H19" s="57">
-        <v>32.154298735081497</v>
+        <v>18.3303194771457</v>
       </c>
       <c r="I19" s="56">
-        <v>89266.954299999998</v>
+        <v>22798.535400000001</v>
       </c>
       <c r="J19" s="57">
-        <v>14.048409177148599</v>
+        <v>4.0070857532634401</v>
       </c>
       <c r="K19" s="56">
         <v>1498.7936999999999</v>
@@ -61453,13 +61535,13 @@
         <v>0.31171635136825598</v>
       </c>
       <c r="M19" s="57">
-        <v>58.559200375608697</v>
+        <v>14.2112564924712</v>
       </c>
       <c r="N19" s="56">
-        <v>15524597.824100001</v>
+        <v>15452875.480900001</v>
       </c>
       <c r="O19" s="56">
-        <v>126192874.984</v>
+        <v>126121152.6408</v>
       </c>
       <c r="P19" s="56">
         <v>9419</v>
@@ -61471,41 +61553,41 @@
         <v>6.8519568916619402</v>
       </c>
       <c r="S19" s="56">
-        <v>67.461931659411803</v>
+        <v>60.4050871005415</v>
       </c>
       <c r="T19" s="56">
-        <v>51.0987014180374</v>
+        <v>50.595306670448103</v>
       </c>
       <c r="U19" s="58">
-        <v>24.255502086696499</v>
+        <v>16.2399905388191</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="12" thickBot="1">
       <c r="A20" s="82"/>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="72"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="56">
-        <v>1622546.26</v>
+        <v>1374376.8885999999</v>
       </c>
       <c r="E20" s="56">
         <v>949696.26560000004</v>
       </c>
       <c r="F20" s="57">
-        <v>170.84896706158</v>
+        <v>144.71752057819199</v>
       </c>
       <c r="G20" s="56">
         <v>862435.52769999998</v>
       </c>
       <c r="H20" s="57">
-        <v>88.135368718762393</v>
+        <v>59.359957290405099</v>
       </c>
       <c r="I20" s="56">
-        <v>341973.10830000002</v>
+        <v>93803.736900000004</v>
       </c>
       <c r="J20" s="57">
-        <v>21.076324091986098</v>
+        <v>6.8251829376694904</v>
       </c>
       <c r="K20" s="56">
         <v>53725.1973</v>
@@ -61514,13 +61596,13 @@
         <v>6.2294740388627003</v>
       </c>
       <c r="M20" s="57">
-        <v>5.3652275931241702</v>
+        <v>0.74599148284561101</v>
       </c>
       <c r="N20" s="56">
-        <v>32611580.248599999</v>
+        <v>32350031.352600001</v>
       </c>
       <c r="O20" s="56">
-        <v>229334467.97670001</v>
+        <v>229072919.08070001</v>
       </c>
       <c r="P20" s="56">
         <v>43479</v>
@@ -61532,41 +61614,41 @@
         <v>0.91447139375653297</v>
       </c>
       <c r="S20" s="56">
-        <v>37.317929575197198</v>
+        <v>31.610131065571899</v>
       </c>
       <c r="T20" s="56">
-        <v>35.4868674735987</v>
+        <v>35.228071384472599</v>
       </c>
       <c r="U20" s="58">
-        <v>4.9066551184433997</v>
+        <v>-11.4455087560239</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A21" s="82"/>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="72"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="56">
-        <v>414018.74560000002</v>
+        <v>341980.37719999999</v>
       </c>
       <c r="E21" s="56">
         <v>348032.19699999999</v>
       </c>
       <c r="F21" s="57">
-        <v>118.959897724635</v>
+        <v>98.261132202087595</v>
       </c>
       <c r="G21" s="56">
         <v>303392.96750000003</v>
       </c>
       <c r="H21" s="57">
-        <v>36.4628682766023</v>
+        <v>12.7186236444323</v>
       </c>
       <c r="I21" s="56">
-        <v>101303.87910000001</v>
+        <v>29265.510699999999</v>
       </c>
       <c r="J21" s="57">
-        <v>24.468428102981001</v>
+        <v>8.5576578807282502</v>
       </c>
       <c r="K21" s="56">
         <v>30561.138500000001</v>
@@ -61575,13 +61657,13 @@
         <v>10.0731202676937</v>
       </c>
       <c r="M21" s="57">
-        <v>2.3147940185539899</v>
+        <v>-4.2394618250233003E-2</v>
       </c>
       <c r="N21" s="56">
-        <v>9206172.5787000004</v>
+        <v>9131859.0106000006</v>
       </c>
       <c r="O21" s="56">
-        <v>76568864.554299995</v>
+        <v>76494550.986200005</v>
       </c>
       <c r="P21" s="56">
         <v>29810</v>
@@ -61593,41 +61675,41 @@
         <v>7.36925515055467</v>
       </c>
       <c r="S21" s="56">
-        <v>13.8885858973499</v>
+        <v>11.472001918819201</v>
       </c>
       <c r="T21" s="56">
-        <v>11.5706486853479</v>
+        <v>11.5164450115257</v>
       </c>
       <c r="U21" s="58">
-        <v>16.689512014641</v>
+        <v>-0.387404857678951</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A22" s="82"/>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="72"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="56">
-        <v>1474637.4169999999</v>
+        <v>1268775.3927</v>
       </c>
       <c r="E22" s="56">
         <v>1503994.0789999999</v>
       </c>
       <c r="F22" s="57">
-        <v>98.048086597553706</v>
+        <v>84.360398116966294</v>
       </c>
       <c r="G22" s="56">
         <v>1333151.5005999999</v>
       </c>
       <c r="H22" s="57">
-        <v>10.612891058242299</v>
+        <v>-4.8288666270132801</v>
       </c>
       <c r="I22" s="56">
-        <v>241836.77910000001</v>
+        <v>35974.754800000002</v>
       </c>
       <c r="J22" s="57">
-        <v>16.399745205976998</v>
+        <v>2.83539190679324</v>
       </c>
       <c r="K22" s="56">
         <v>162310.55960000001</v>
@@ -61636,13 +61718,13 @@
         <v>12.174952323644399</v>
       </c>
       <c r="M22" s="57">
-        <v>0.489963312898343</v>
+        <v>-0.77835850674992102</v>
       </c>
       <c r="N22" s="56">
-        <v>46075005.6118</v>
+        <v>45861802.207800001</v>
       </c>
       <c r="O22" s="56">
-        <v>264243762.27739999</v>
+        <v>264030558.8734</v>
       </c>
       <c r="P22" s="56">
         <v>78057</v>
@@ -61654,41 +61736,41 @@
         <v>7.6574029377284303</v>
       </c>
       <c r="S22" s="56">
-        <v>18.8918023623762</v>
+        <v>16.2544729197894</v>
       </c>
       <c r="T22" s="56">
-        <v>16.208958393214299</v>
+        <v>16.151054040411001</v>
       </c>
       <c r="U22" s="58">
-        <v>14.201101185056499</v>
+        <v>0.63624874143084598</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="12" thickBot="1">
       <c r="A23" s="82"/>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="56">
-        <v>5749315.8526999997</v>
+        <v>5247069.6398</v>
       </c>
       <c r="E23" s="56">
         <v>3122447.2061999999</v>
       </c>
       <c r="F23" s="57">
-        <v>184.12852077319499</v>
+        <v>168.04350220497901</v>
       </c>
       <c r="G23" s="56">
         <v>2727865.1567000002</v>
       </c>
       <c r="H23" s="57">
-        <v>110.76246524059</v>
+        <v>92.350770231897201</v>
       </c>
       <c r="I23" s="56">
-        <v>220843.8817</v>
+        <v>-281402.33120000002</v>
       </c>
       <c r="J23" s="57">
-        <v>3.8412201965958599</v>
+        <v>-5.3630378576550797</v>
       </c>
       <c r="K23" s="56">
         <v>304519.81479999999</v>
@@ -61697,13 +61779,13 @@
         <v>11.1633016042622</v>
       </c>
       <c r="M23" s="57">
-        <v>-0.274779929033373</v>
+        <v>-1.924085453634</v>
       </c>
       <c r="N23" s="56">
-        <v>100135658.2762</v>
+        <v>99482546.370800003</v>
       </c>
       <c r="O23" s="56">
-        <v>592042727.57260001</v>
+        <v>591389615.66719997</v>
       </c>
       <c r="P23" s="56">
         <v>93939</v>
@@ -61715,41 +61797,41 @@
         <v>3.7942655101928202</v>
       </c>
       <c r="S23" s="56">
-        <v>61.202651217279303</v>
+        <v>55.8561368526384</v>
       </c>
       <c r="T23" s="56">
-        <v>55.447932895420102</v>
+        <v>53.9864554853323</v>
       </c>
       <c r="U23" s="58">
-        <v>9.4027271815872506</v>
+        <v>3.34731593099389</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="12" thickBot="1">
       <c r="A24" s="82"/>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="72"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="56">
-        <v>312784.53989999997</v>
+        <v>286001.1361</v>
       </c>
       <c r="E24" s="56">
         <v>225631.52989999999</v>
       </c>
       <c r="F24" s="57">
-        <v>138.62625495586801</v>
+        <v>126.75583781520101</v>
       </c>
       <c r="G24" s="56">
         <v>209926.9283</v>
       </c>
       <c r="H24" s="57">
-        <v>48.996864019755201</v>
+        <v>36.2384227769411</v>
       </c>
       <c r="I24" s="56">
-        <v>65408.7834</v>
+        <v>38625.3796</v>
       </c>
       <c r="J24" s="57">
-        <v>20.911769942629402</v>
+        <v>13.5053238342713</v>
       </c>
       <c r="K24" s="56">
         <v>31133.4938</v>
@@ -61758,13 +61840,13 @@
         <v>14.830633712464</v>
       </c>
       <c r="M24" s="57">
-        <v>1.1009136918645499</v>
+        <v>0.24063748990484299</v>
       </c>
       <c r="N24" s="56">
-        <v>7972642.4985999996</v>
+        <v>7944836.5384999998</v>
       </c>
       <c r="O24" s="56">
-        <v>54978586.998000003</v>
+        <v>54950781.037900001</v>
       </c>
       <c r="P24" s="56">
         <v>26080</v>
@@ -61776,41 +61858,41 @@
         <v>-0.15696183147658799</v>
       </c>
       <c r="S24" s="56">
-        <v>11.9932722354294</v>
+        <v>10.966301230828201</v>
       </c>
       <c r="T24" s="56">
-        <v>10.4815848129857</v>
+        <v>10.461964718042999</v>
       </c>
       <c r="U24" s="58">
-        <v>12.6044618413483</v>
+        <v>4.5989664351685597</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="12" thickBot="1">
       <c r="A25" s="82"/>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="56">
-        <v>318063.11060000001</v>
+        <v>316733.89020000002</v>
       </c>
       <c r="E25" s="56">
         <v>222981.02590000001</v>
       </c>
       <c r="F25" s="57">
-        <v>142.64133430915399</v>
+        <v>142.045220628793</v>
       </c>
       <c r="G25" s="56">
         <v>187311.03469999999</v>
       </c>
       <c r="H25" s="57">
-        <v>69.804790790577002</v>
+        <v>69.095158065452694</v>
       </c>
       <c r="I25" s="56">
-        <v>24370.164700000001</v>
+        <v>23040.944299999999</v>
       </c>
       <c r="J25" s="57">
-        <v>7.6620531862458598</v>
+        <v>7.2745433983875003</v>
       </c>
       <c r="K25" s="56">
         <v>15323.125899999999</v>
@@ -61819,13 +61901,13 @@
         <v>8.1805783223298807</v>
       </c>
       <c r="M25" s="57">
-        <v>0.59041731165310096</v>
+        <v>0.50367127767317998</v>
       </c>
       <c r="N25" s="56">
-        <v>8025943.1462000003</v>
+        <v>8023734.3864000002</v>
       </c>
       <c r="O25" s="56">
-        <v>68022035.5264</v>
+        <v>68019826.766599998</v>
       </c>
       <c r="P25" s="56">
         <v>16629</v>
@@ -61837,41 +61919,41 @@
         <v>2.7686793152462701</v>
       </c>
       <c r="S25" s="56">
-        <v>19.1270136869325</v>
+        <v>19.047079812376001</v>
       </c>
       <c r="T25" s="56">
-        <v>14.558799270749599</v>
+        <v>14.5294569124282</v>
       </c>
       <c r="U25" s="58">
-        <v>23.883573729566699</v>
+        <v>23.718191683181001</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="12" thickBot="1">
       <c r="A26" s="82"/>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="72"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="56">
-        <v>794967.67480000004</v>
+        <v>716532.42520000006</v>
       </c>
       <c r="E26" s="56">
         <v>655218.79099999997</v>
       </c>
       <c r="F26" s="57">
-        <v>121.328583019836</v>
+        <v>109.35773439989801</v>
       </c>
       <c r="G26" s="56">
         <v>717583.01630000002</v>
       </c>
       <c r="H26" s="57">
-        <v>10.784070517584199</v>
+        <v>-0.146406907094454</v>
       </c>
       <c r="I26" s="56">
-        <v>194631.7487</v>
+        <v>116196.4991</v>
       </c>
       <c r="J26" s="57">
-        <v>24.482976461774498</v>
+        <v>16.216502563378999</v>
       </c>
       <c r="K26" s="56">
         <v>129748.49</v>
@@ -61880,13 +61962,13 @@
         <v>18.081321192495501</v>
       </c>
       <c r="M26" s="57">
-        <v>0.500069470558</v>
+        <v>-0.104448158895722</v>
       </c>
       <c r="N26" s="56">
-        <v>18961334.954100002</v>
+        <v>18879449.0297</v>
       </c>
       <c r="O26" s="56">
-        <v>130448652.70640001</v>
+        <v>130366766.78200001</v>
       </c>
       <c r="P26" s="56">
         <v>44983</v>
@@ -61898,41 +61980,41 @@
         <v>0.70971208525500995</v>
       </c>
       <c r="S26" s="56">
-        <v>17.672624653758099</v>
+        <v>15.928960389480499</v>
       </c>
       <c r="T26" s="56">
-        <v>15.574704262750201</v>
+        <v>15.5299465208436</v>
       </c>
       <c r="U26" s="58">
-        <v>11.8710176451452</v>
+        <v>2.5049586343399102</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="12" thickBot="1">
       <c r="A27" s="82"/>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="72"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="56">
-        <v>209741.15479999999</v>
+        <v>206758.36559999999</v>
       </c>
       <c r="E27" s="56">
         <v>189814.66699999999</v>
       </c>
       <c r="F27" s="57">
-        <v>110.497865162338</v>
+        <v>108.92644328691399</v>
       </c>
       <c r="G27" s="56">
         <v>163728.8786</v>
       </c>
       <c r="H27" s="57">
-        <v>28.102724817660899</v>
+        <v>26.280939176969401</v>
       </c>
       <c r="I27" s="56">
-        <v>59798.022900000004</v>
+        <v>56815.233699999997</v>
       </c>
       <c r="J27" s="57">
-        <v>28.510390799087901</v>
+        <v>27.479049534525799</v>
       </c>
       <c r="K27" s="56">
         <v>46796.2664</v>
@@ -61941,13 +62023,13 @@
         <v>28.581559221648501</v>
       </c>
       <c r="M27" s="57">
-        <v>0.27783747508540502</v>
+        <v>0.21409757809225599</v>
       </c>
       <c r="N27" s="56">
-        <v>5508924.3191</v>
+        <v>5505188.9206999997</v>
       </c>
       <c r="O27" s="56">
-        <v>43937158.5251</v>
+        <v>43933423.126699999</v>
       </c>
       <c r="P27" s="56">
         <v>27255</v>
@@ -61959,41 +62041,41 @@
         <v>5.7953575032994298</v>
       </c>
       <c r="S27" s="56">
-        <v>7.6955110915428397</v>
+        <v>7.5860710181618103</v>
       </c>
       <c r="T27" s="56">
-        <v>7.5105381647387599</v>
+        <v>7.49621737054576</v>
       </c>
       <c r="U27" s="58">
-        <v>2.4036470690992302</v>
+        <v>1.18445566092015</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="12" thickBot="1">
       <c r="A28" s="82"/>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="56">
-        <v>864721.7916</v>
+        <v>858162.72560000001</v>
       </c>
       <c r="E28" s="56">
         <v>681082.78540000005</v>
       </c>
       <c r="F28" s="57">
-        <v>126.962802486947</v>
+        <v>125.999767428566</v>
       </c>
       <c r="G28" s="56">
         <v>626839.62899999996</v>
       </c>
       <c r="H28" s="57">
-        <v>37.949445375605002</v>
+        <v>36.903074709719697</v>
       </c>
       <c r="I28" s="56">
-        <v>43289.173300000002</v>
+        <v>36730.107300000003</v>
       </c>
       <c r="J28" s="57">
-        <v>5.0061388206606603</v>
+        <v>4.2800865388693596</v>
       </c>
       <c r="K28" s="56">
         <v>9917.6533999999992</v>
@@ -62002,13 +62084,13 @@
         <v>1.5821675818138199</v>
       </c>
       <c r="M28" s="57">
-        <v>3.36486047193381</v>
+        <v>2.70350785801811</v>
       </c>
       <c r="N28" s="56">
-        <v>26346016.647700001</v>
+        <v>26339450.253699999</v>
       </c>
       <c r="O28" s="56">
-        <v>187896028.2807</v>
+        <v>187889461.8867</v>
       </c>
       <c r="P28" s="56">
         <v>37486</v>
@@ -62020,41 +62102,41 @@
         <v>0.474416360663654</v>
       </c>
       <c r="S28" s="56">
-        <v>23.067859776983401</v>
+        <v>22.892886026783302</v>
       </c>
       <c r="T28" s="56">
-        <v>22.818524573159301</v>
+        <v>22.8184554504275</v>
       </c>
       <c r="U28" s="58">
-        <v>1.08087705679958</v>
+        <v>0.32512535234194601</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="12" thickBot="1">
       <c r="A29" s="82"/>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="56">
-        <v>566516.04059999995</v>
+        <v>561418.77610000002</v>
       </c>
       <c r="E29" s="56">
         <v>603596.69050000003</v>
       </c>
       <c r="F29" s="57">
-        <v>93.856717493052599</v>
+        <v>93.012235642799595</v>
       </c>
       <c r="G29" s="56">
         <v>549406.15370000002</v>
       </c>
       <c r="H29" s="57">
-        <v>3.1142510481130699</v>
+        <v>2.18647394447629</v>
       </c>
       <c r="I29" s="56">
-        <v>95587.733200000002</v>
+        <v>90490.468699999998</v>
       </c>
       <c r="J29" s="57">
-        <v>16.872908505602499</v>
+        <v>16.118176404538701</v>
       </c>
       <c r="K29" s="56">
         <v>63440.962299999999</v>
@@ -62063,13 +62145,13 @@
         <v>11.5471881544744</v>
       </c>
       <c r="M29" s="57">
-        <v>0.50671947168745901</v>
+        <v>0.42637288936583501</v>
       </c>
       <c r="N29" s="56">
-        <v>17160250.9168</v>
+        <v>17155148.026099999</v>
       </c>
       <c r="O29" s="56">
-        <v>139185737.0246</v>
+        <v>139180634.13389999</v>
       </c>
       <c r="P29" s="56">
         <v>92860</v>
@@ -62081,41 +62163,41 @@
         <v>-2.56647010681385</v>
       </c>
       <c r="S29" s="56">
-        <v>6.1007542601766103</v>
+        <v>6.0458623314667204</v>
       </c>
       <c r="T29" s="56">
-        <v>5.7494838824418197</v>
+        <v>5.7494677816716697</v>
       </c>
       <c r="U29" s="58">
-        <v>5.7578188327917097</v>
+        <v>4.9024363034602896</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="12" thickBot="1">
       <c r="A30" s="82"/>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="72"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="56">
-        <v>1216428.3041000001</v>
+        <v>1211832.8744000001</v>
       </c>
       <c r="E30" s="56">
         <v>1370802.051</v>
       </c>
       <c r="F30" s="57">
-        <v>88.738436247058104</v>
+        <v>88.403199682694407</v>
       </c>
       <c r="G30" s="56">
         <v>1196355.7161000001</v>
       </c>
       <c r="H30" s="57">
-        <v>1.67781101639521</v>
+        <v>1.2936920091337001</v>
       </c>
       <c r="I30" s="56">
-        <v>169626.24669999999</v>
+        <v>165030.81700000001</v>
       </c>
       <c r="J30" s="57">
-        <v>13.9446152418742</v>
+        <v>13.6182819006053</v>
       </c>
       <c r="K30" s="56">
         <v>80022.789000000004</v>
@@ -62124,13 +62206,13 @@
         <v>6.6888792290696202</v>
       </c>
       <c r="M30" s="57">
-        <v>1.11972425379975</v>
+        <v>1.0622977412096899</v>
       </c>
       <c r="N30" s="56">
-        <v>35049519.582699999</v>
+        <v>35040466.210299999</v>
       </c>
       <c r="O30" s="56">
-        <v>217152794.7193</v>
+        <v>217143741.34689999</v>
       </c>
       <c r="P30" s="56">
         <v>69350</v>
@@ -62142,41 +62224,41 @@
         <v>-0.49501398952579401</v>
       </c>
       <c r="S30" s="56">
-        <v>17.540422553713</v>
+        <v>17.4741582465753</v>
       </c>
       <c r="T30" s="56">
-        <v>16.4169174804505</v>
+        <v>16.381063881196599</v>
       </c>
       <c r="U30" s="58">
-        <v>6.4052337953778702</v>
+        <v>6.2554908222427601</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="12" thickBot="1">
       <c r="A31" s="82"/>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="72"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="56">
-        <v>3804212.5865000002</v>
+        <v>3149330.9290999998</v>
       </c>
       <c r="E31" s="56">
         <v>836462.28850000002</v>
       </c>
       <c r="F31" s="57">
-        <v>454.79785984398302</v>
+        <v>376.50602691815197</v>
       </c>
       <c r="G31" s="56">
         <v>769528.2855</v>
       </c>
       <c r="H31" s="57">
-        <v>394.35643343872903</v>
+        <v>309.25473285932901</v>
       </c>
       <c r="I31" s="56">
-        <v>542525.98829999997</v>
+        <v>-112355.6691</v>
       </c>
       <c r="J31" s="57">
-        <v>14.2611900876744</v>
+        <v>-3.5676044096168802</v>
       </c>
       <c r="K31" s="56">
         <v>-2488.8256000000001</v>
@@ -62185,13 +62267,13 @@
         <v>-0.32342223760922401</v>
       </c>
       <c r="M31" s="57">
-        <v>-218.984734768077</v>
+        <v>44.144050712111003</v>
       </c>
       <c r="N31" s="56">
-        <v>33895836.669600002</v>
+        <v>33238536.795200001</v>
       </c>
       <c r="O31" s="56">
-        <v>234007902.6859</v>
+        <v>233350602.81150001</v>
       </c>
       <c r="P31" s="56">
         <v>54045</v>
@@ -62203,41 +62285,41 @@
         <v>53.388772208662097</v>
       </c>
       <c r="S31" s="56">
-        <v>70.389723128874095</v>
+        <v>58.272382812471101</v>
       </c>
       <c r="T31" s="56">
-        <v>36.661896787194202</v>
+        <v>36.613366021456599</v>
       </c>
       <c r="U31" s="58">
-        <v>47.9158389072348</v>
+        <v>37.168579257718697</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="12" thickBot="1">
       <c r="A32" s="82"/>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="72"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="56">
-        <v>101046.5843</v>
+        <v>99492.2889</v>
       </c>
       <c r="E32" s="56">
         <v>131436.7071</v>
       </c>
       <c r="F32" s="57">
-        <v>76.878511741108596</v>
+        <v>75.695968877479601</v>
       </c>
       <c r="G32" s="56">
         <v>94147.655299999999</v>
       </c>
       <c r="H32" s="57">
-        <v>7.3277756923597002</v>
+        <v>5.6768632027737898</v>
       </c>
       <c r="I32" s="56">
-        <v>24901.1113</v>
+        <v>23346.815900000001</v>
       </c>
       <c r="J32" s="57">
-        <v>24.6431994436055</v>
+        <v>23.465955159063601</v>
       </c>
       <c r="K32" s="56">
         <v>23208.333699999999</v>
@@ -62246,13 +62328,13 @@
         <v>24.650994893125102</v>
       </c>
       <c r="M32" s="57">
-        <v>7.2938351450883995E-2</v>
+        <v>5.9669169613850003E-3</v>
       </c>
       <c r="N32" s="56">
-        <v>3803679.3409000002</v>
+        <v>3801842.1253999998</v>
       </c>
       <c r="O32" s="56">
-        <v>22667848.473900001</v>
+        <v>22666011.258400001</v>
       </c>
       <c r="P32" s="56">
         <v>19800</v>
@@ -62264,21 +62346,21 @@
         <v>4.1940746197968801</v>
       </c>
       <c r="S32" s="56">
-        <v>5.1033628434343399</v>
+        <v>5.0248630757575796</v>
       </c>
       <c r="T32" s="56">
-        <v>4.91072624322475</v>
+        <v>4.9042279482186997</v>
       </c>
       <c r="U32" s="58">
-        <v>3.7746992741741399</v>
+        <v>2.4007644729838802</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="12" thickBot="1">
       <c r="A33" s="82"/>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="72"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
@@ -62304,30 +62386,30 @@
     </row>
     <row r="34" spans="1:21" ht="12" thickBot="1">
       <c r="A34" s="82"/>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="72"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="56">
-        <v>201423.2702</v>
+        <v>192855.4117</v>
       </c>
       <c r="E34" s="56">
         <v>101316.4466</v>
       </c>
       <c r="F34" s="57">
-        <v>198.80609413319101</v>
+        <v>190.34956137121401</v>
       </c>
       <c r="G34" s="56">
         <v>91625.237099999998</v>
       </c>
       <c r="H34" s="57">
-        <v>119.83383244090901</v>
+        <v>110.482851454471</v>
       </c>
       <c r="I34" s="56">
-        <v>31829.8845</v>
+        <v>23262.026000000002</v>
       </c>
       <c r="J34" s="57">
-        <v>15.8024862114467</v>
+        <v>12.061899531336801</v>
       </c>
       <c r="K34" s="56">
         <v>17334.826799999999</v>
@@ -62336,13 +62418,13 @@
         <v>18.919270878481601</v>
       </c>
       <c r="M34" s="57">
-        <v>0.83618128218044796</v>
+        <v>0.34192433927289101</v>
       </c>
       <c r="N34" s="56">
-        <v>4615133.2769999998</v>
+        <v>4606554.7482000003</v>
       </c>
       <c r="O34" s="56">
-        <v>36258306.1721</v>
+        <v>36249727.643299997</v>
       </c>
       <c r="P34" s="56">
         <v>10247</v>
@@ -62354,42 +62436,42 @@
         <v>0.65815324165030598</v>
       </c>
       <c r="S34" s="56">
-        <v>19.656803962135299</v>
+        <v>18.820670606031001</v>
       </c>
       <c r="T34" s="56">
-        <v>19.447946119842801</v>
+        <v>19.447525255402802</v>
       </c>
       <c r="U34" s="58">
-        <v>1.0625218763678801</v>
+        <v>-3.33067116732198</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A35" s="82"/>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="72"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="56">
-        <v>12770.0494</v>
+        <v>12630.3495</v>
       </c>
       <c r="E35" s="59"/>
       <c r="F35" s="59"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="56">
-        <v>677.52139999999997</v>
+        <v>537.82150000000001</v>
       </c>
       <c r="J35" s="57">
-        <v>5.3055503450127599</v>
+        <v>4.2581679944802797</v>
       </c>
       <c r="K35" s="59"/>
       <c r="L35" s="59"/>
       <c r="M35" s="59"/>
       <c r="N35" s="56">
-        <v>201814.78219999999</v>
+        <v>201495.883</v>
       </c>
       <c r="O35" s="56">
-        <v>424094.8321</v>
+        <v>423775.93290000001</v>
       </c>
       <c r="P35" s="56">
         <v>1480</v>
@@ -62401,21 +62483,21 @@
         <v>67.990919409761602</v>
       </c>
       <c r="S35" s="56">
-        <v>8.6284117567567602</v>
+        <v>8.5340199324324306</v>
       </c>
       <c r="T35" s="56">
-        <v>9.4849298524404109</v>
+        <v>9.3184616345062405</v>
       </c>
       <c r="U35" s="58">
-        <v>-9.9267179155297995</v>
+        <v>-9.1919366053111897</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A36" s="82"/>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="72"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="56">
         <v>132965.85</v>
       </c>
@@ -62469,10 +62551,10 @@
     </row>
     <row r="37" spans="1:21" ht="12" thickBot="1">
       <c r="A37" s="82"/>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="72"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="56">
         <v>230946.22</v>
       </c>
@@ -62526,10 +62608,10 @@
     </row>
     <row r="38" spans="1:21" ht="12" thickBot="1">
       <c r="A38" s="82"/>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="72"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="56">
         <v>577431.69999999995</v>
       </c>
@@ -62583,10 +62665,10 @@
     </row>
     <row r="39" spans="1:21" ht="12" thickBot="1">
       <c r="A39" s="82"/>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="72"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="56">
         <v>268095.09000000003</v>
       </c>
@@ -62640,10 +62722,10 @@
     </row>
     <row r="40" spans="1:21" ht="12" thickBot="1">
       <c r="A40" s="82"/>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="72"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="56">
         <v>19.71</v>
       </c>
@@ -62689,10 +62771,10 @@
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A41" s="82"/>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="72"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="56">
         <v>86130.7693</v>
       </c>
@@ -62746,30 +62828,30 @@
     </row>
     <row r="42" spans="1:21" ht="12" thickBot="1">
       <c r="A42" s="82"/>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="72"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="56">
-        <v>533961.6618</v>
+        <v>507314.39179999998</v>
       </c>
       <c r="E42" s="56">
         <v>1107662.693</v>
       </c>
       <c r="F42" s="57">
-        <v>48.2061610609829</v>
+        <v>45.800440423427702</v>
       </c>
       <c r="G42" s="56">
         <v>1842242.6743000001</v>
       </c>
       <c r="H42" s="57">
-        <v>-71.015671862943293</v>
+        <v>-72.4621300506588</v>
       </c>
       <c r="I42" s="56">
-        <v>55131.592600000004</v>
+        <v>28484.3226</v>
       </c>
       <c r="J42" s="57">
-        <v>10.325009554833899</v>
+        <v>5.6147278808580401</v>
       </c>
       <c r="K42" s="56">
         <v>3263.8159000000001</v>
@@ -62778,13 +62860,13 @@
         <v>0.17716536184572701</v>
       </c>
       <c r="M42" s="57">
-        <v>15.8917593054192</v>
+        <v>7.7273067699682398</v>
       </c>
       <c r="N42" s="56">
-        <v>13480501.705600001</v>
+        <v>13452769.050899999</v>
       </c>
       <c r="O42" s="56">
-        <v>90571580.248099998</v>
+        <v>90543847.593400002</v>
       </c>
       <c r="P42" s="56">
         <v>2089</v>
@@ -62796,21 +62878,21 @@
         <v>1.60505836575875</v>
       </c>
       <c r="S42" s="56">
-        <v>255.60634839636199</v>
+        <v>242.85035509813301</v>
       </c>
       <c r="T42" s="56">
-        <v>220.48706094357999</v>
+        <v>220.14218754863799</v>
       </c>
       <c r="U42" s="58">
-        <v>13.739599064387701</v>
+        <v>9.3506832799642599</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="12" thickBot="1">
       <c r="A43" s="82"/>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="72"/>
+      <c r="C43" s="70"/>
       <c r="D43" s="56">
         <v>167423.17000000001</v>
       </c>
@@ -62838,10 +62920,10 @@
         <v>-0.73565907215919402</v>
       </c>
       <c r="N43" s="56">
-        <v>4017994.02</v>
+        <v>4018035.04</v>
       </c>
       <c r="O43" s="56">
-        <v>37495278.079999998</v>
+        <v>37495319.100000001</v>
       </c>
       <c r="P43" s="56">
         <v>130</v>
@@ -62864,10 +62946,10 @@
     </row>
     <row r="44" spans="1:21" ht="12" thickBot="1">
       <c r="A44" s="82"/>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="72"/>
+      <c r="C44" s="70"/>
       <c r="D44" s="56">
         <v>75676.98</v>
       </c>
@@ -62921,10 +63003,10 @@
     </row>
     <row r="45" spans="1:21" ht="12" thickBot="1">
       <c r="A45" s="82"/>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="72"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="59"/>
       <c r="E45" s="59"/>
       <c r="F45" s="59"/>
@@ -62950,10 +63032,10 @@
     </row>
     <row r="46" spans="1:21" ht="12" thickBot="1">
       <c r="A46" s="83"/>
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="72"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="61">
         <v>8409.1218000000008</v>
       </c>
@@ -63007,6 +63089,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="A1:U4"/>
     <mergeCell ref="W1:W4"/>
     <mergeCell ref="B6:C6"/>
@@ -63023,34 +63133,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -63064,8 +63146,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:E40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -63115,7 +63197,7 @@
         <v>247777</v>
       </c>
       <c r="D2" s="37">
-        <v>1165739.25117949</v>
+        <v>1616621.3537435899</v>
       </c>
       <c r="E2" s="37">
         <v>1330871.9844589699</v>
@@ -63141,7 +63223,7 @@
         <v>11128</v>
       </c>
       <c r="D3" s="37">
-        <v>91886.290654700904</v>
+        <v>116640.757919658</v>
       </c>
       <c r="E3" s="37">
         <v>89710.438552136795</v>
@@ -63167,7 +63249,7 @@
         <v>144836</v>
       </c>
       <c r="D4" s="37">
-        <v>163980.724312231</v>
+        <v>223754.10892761499</v>
       </c>
       <c r="E4" s="37">
         <v>160740.42499931299</v>
@@ -63193,7 +63275,7 @@
         <v>5289</v>
       </c>
       <c r="D5" s="37">
-        <v>75257.347156947304</v>
+        <v>104608.717401256</v>
       </c>
       <c r="E5" s="37">
         <v>83203.875635254502</v>
@@ -63219,7 +63301,7 @@
         <v>14625</v>
       </c>
       <c r="D6" s="37">
-        <v>413531.331466667</v>
+        <v>748788.88702222204</v>
       </c>
       <c r="E6" s="37">
         <v>517305.451517949</v>
@@ -63245,7 +63327,7 @@
         <v>35665</v>
       </c>
       <c r="D7" s="37">
-        <v>369240.48015470098</v>
+        <v>547718.79639401694</v>
       </c>
       <c r="E7" s="37">
         <v>402104.090935043</v>
@@ -63271,7 +63353,7 @@
         <v>46310</v>
       </c>
       <c r="D8" s="37">
-        <v>118389.501030769</v>
+        <v>120839.61214188</v>
       </c>
       <c r="E8" s="37">
         <v>94924.542814529894</v>
@@ -63297,7 +63379,7 @@
         <v>24094</v>
       </c>
       <c r="D9" s="37">
-        <v>121945.86021880301</v>
+        <v>166028.98842393199</v>
       </c>
       <c r="E9" s="37">
         <v>143749.96240598301</v>
@@ -63323,7 +63405,7 @@
         <v>358809</v>
       </c>
       <c r="D10" s="37">
-        <v>1250076.1100717899</v>
+        <v>1400422.7841509101</v>
       </c>
       <c r="E10" s="37">
         <v>1367411.5211</v>
@@ -63349,7 +63431,7 @@
         <v>101724</v>
       </c>
       <c r="D11" s="37">
-        <v>730673.18757435901</v>
+        <v>774048.33287350403</v>
       </c>
       <c r="E11" s="37">
         <v>717631.12554615398</v>
@@ -63375,7 +63457,7 @@
         <v>207300.95800000001</v>
       </c>
       <c r="D12" s="37">
-        <v>1768067.0990700901</v>
+        <v>1822490.1223160599</v>
       </c>
       <c r="E12" s="37">
         <v>1611075.5556572599</v>
@@ -63401,7 +63483,7 @@
         <v>14916</v>
       </c>
       <c r="D13" s="37">
-        <v>543682.93021452997</v>
+        <v>568955.49210999894</v>
       </c>
       <c r="E13" s="37">
         <v>546156.97996837599</v>
@@ -63427,7 +63509,7 @@
         <v>96140</v>
       </c>
       <c r="D14" s="37">
-        <v>1312776.7079</v>
+        <v>1374377.0810185201</v>
       </c>
       <c r="E14" s="37">
         <v>1280573.1517</v>
@@ -63453,7 +63535,7 @@
         <v>67321</v>
       </c>
       <c r="D15" s="37">
-        <v>330273.35753716802</v>
+        <v>341979.77487473702</v>
       </c>
       <c r="E15" s="37">
         <v>312714.86657787598</v>
@@ -63479,7 +63561,7 @@
         <v>173032.326</v>
       </c>
       <c r="D16" s="37">
-        <v>1237891.6956019001</v>
+        <v>1268776.19049601</v>
       </c>
       <c r="E16" s="37">
         <v>1232800.6385170601</v>
@@ -63505,7 +63587,7 @@
         <v>382143</v>
       </c>
       <c r="D17" s="37">
-        <v>4633033.8414940201</v>
+        <v>5247072.4127760697</v>
       </c>
       <c r="E17" s="37">
         <v>5528471.9986640997</v>
@@ -63531,7 +63613,7 @@
         <v>31625.957999999999</v>
       </c>
       <c r="D18" s="37">
-        <v>282285.27386522997</v>
+        <v>286001.24255989603</v>
       </c>
       <c r="E18" s="37">
         <v>247375.760419673</v>
@@ -63557,7 +63639,7 @@
         <v>17560.995999999999</v>
       </c>
       <c r="D19" s="37">
-        <v>313464.97573946702</v>
+        <v>316733.86616910202</v>
       </c>
       <c r="E19" s="37">
         <v>293692.955852193</v>
@@ -63583,7 +63665,7 @@
         <v>71011.892000000007</v>
       </c>
       <c r="D20" s="37">
-        <v>694120.52035471599</v>
+        <v>716532.39868446998</v>
       </c>
       <c r="E20" s="37">
         <v>600335.95660695701</v>
@@ -63609,7 +63691,7 @@
         <v>35861.838000000003</v>
       </c>
       <c r="D21" s="37">
-        <v>204175.90051660201</v>
+        <v>206758.16837629501</v>
       </c>
       <c r="E21" s="37">
         <v>149943.12774426799</v>
@@ -63635,7 +63717,7 @@
         <v>26851.022000000001</v>
       </c>
       <c r="D22" s="37">
-        <v>843855.28346991201</v>
+        <v>858163.66602991102</v>
       </c>
       <c r="E22" s="37">
         <v>821432.61268141598</v>
@@ -63661,7 +63743,7 @@
         <v>135012.22399999999</v>
       </c>
       <c r="D23" s="37">
-        <v>555502.56184513296</v>
+        <v>561419.175898407</v>
       </c>
       <c r="E23" s="37">
         <v>470928.29668357997</v>
@@ -63687,7 +63769,7 @@
         <v>152098.85500000001</v>
       </c>
       <c r="D24" s="37">
-        <v>1190832.11231416</v>
+        <v>1211832.8632581099</v>
       </c>
       <c r="E24" s="37">
         <v>1046802.18136134</v>
@@ -63713,7 +63795,7 @@
         <v>814877.84900000005</v>
       </c>
       <c r="D25" s="37">
-        <v>3131053.4982858398</v>
+        <v>3149331.0622715</v>
       </c>
       <c r="E25" s="37">
         <v>3261686.2909592902</v>
@@ -63739,7 +63821,7 @@
         <v>54574.025999999998</v>
       </c>
       <c r="D26" s="37">
-        <v>98729.299483594295</v>
+        <v>99492.236562786493</v>
       </c>
       <c r="E26" s="37">
         <v>76145.474781962504</v>
@@ -63765,7 +63847,7 @@
         <v>8349.8310000000001</v>
       </c>
       <c r="D27" s="37">
-        <v>191124.27129999999</v>
+        <v>192855.41072171601</v>
       </c>
       <c r="E27" s="37">
         <v>169593.3817</v>
@@ -63791,7 +63873,7 @@
         <v>1879.2470000000001</v>
       </c>
       <c r="D28" s="37">
-        <v>12241.9064</v>
+        <v>12630.3591777778</v>
       </c>
       <c r="E28" s="37">
         <v>12092.526</v>
@@ -63843,7 +63925,7 @@
         <v>2406</v>
       </c>
       <c r="D30" s="37">
-        <v>506374.21674615401</v>
+        <v>507314.387686325</v>
       </c>
       <c r="E30" s="37">
         <v>478830.07002734998</v>
